--- a/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.26033017017194</v>
+        <v>23.12233541650224</v>
       </c>
       <c r="C2">
-        <v>10.61706011744084</v>
+        <v>16.5546806697091</v>
       </c>
       <c r="D2">
-        <v>10.16281519508392</v>
+        <v>2.996726103266788</v>
       </c>
       <c r="E2">
-        <v>8.326877634300999</v>
+        <v>10.51031719471412</v>
       </c>
       <c r="F2">
-        <v>63.48737364565766</v>
+        <v>30.4913117686239</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -436,33 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.46736904323298</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.857320759627941</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.79998335414926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>19.06998990658158</v>
+      </c>
+      <c r="N2">
+        <v>11.44094414464478</v>
+      </c>
+      <c r="O2">
+        <v>23.41876849372942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.88647986008105</v>
+        <v>21.48779243342423</v>
       </c>
       <c r="C3">
-        <v>9.856324758999561</v>
+        <v>15.42362742705088</v>
       </c>
       <c r="D3">
-        <v>9.705819185823607</v>
+        <v>3.096877440854898</v>
       </c>
       <c r="E3">
-        <v>8.019963820980482</v>
+        <v>9.93366245408099</v>
       </c>
       <c r="F3">
-        <v>59.70843883687085</v>
+        <v>28.88655400581874</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -471,33 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.32951758577096</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.425628514291212</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.81296132410816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.7446769895799</v>
+      </c>
+      <c r="N3">
+        <v>11.71290821281779</v>
+      </c>
+      <c r="O3">
+        <v>22.34597815039121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.00690006129835</v>
+        <v>20.43176971459767</v>
       </c>
       <c r="C4">
-        <v>9.371318277628852</v>
+        <v>14.69381931052205</v>
       </c>
       <c r="D4">
-        <v>9.420535908993239</v>
+        <v>3.158755752927542</v>
       </c>
       <c r="E4">
-        <v>7.831599971816703</v>
+        <v>9.576216620661606</v>
       </c>
       <c r="F4">
-        <v>57.32163281041915</v>
+        <v>27.89489198796512</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -506,33 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.60059669905429</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.159304785327633</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.17992076875561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.89066466338701</v>
+      </c>
+      <c r="N4">
+        <v>11.88281534532493</v>
+      </c>
+      <c r="O4">
+        <v>21.6920687070088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63914893623971</v>
+        <v>19.98806268128531</v>
       </c>
       <c r="C5">
-        <v>9.168980283682027</v>
+        <v>14.38741157644144</v>
       </c>
       <c r="D5">
-        <v>9.303102834332474</v>
+        <v>3.184095899955835</v>
       </c>
       <c r="E5">
-        <v>7.754888101416644</v>
+        <v>9.429814963769005</v>
       </c>
       <c r="F5">
-        <v>56.33238707658097</v>
+        <v>27.48956957907374</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -541,33 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.29569073067307</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.050532699896232</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.91496855385922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16.53236115534627</v>
+      </c>
+      <c r="N5">
+        <v>11.95282277200391</v>
+      </c>
+      <c r="O5">
+        <v>21.42703166936983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57751473336356</v>
+        <v>19.91357261101822</v>
       </c>
       <c r="C6">
-        <v>9.135093581162517</v>
+        <v>14.33598568694143</v>
       </c>
       <c r="D6">
-        <v>9.283532446724696</v>
+        <v>3.188311887363873</v>
       </c>
       <c r="E6">
-        <v>7.74215407310406</v>
+        <v>9.405464333079399</v>
       </c>
       <c r="F6">
-        <v>56.16712873181824</v>
+        <v>27.42220587463188</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -576,33 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.24457937527687</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.03245920412386</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.87054641491421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16.47223939755159</v>
+      </c>
+      <c r="N6">
+        <v>11.9644948952441</v>
+      </c>
+      <c r="O6">
+        <v>21.38311689290634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00197847015688</v>
+        <v>20.42584010321653</v>
       </c>
       <c r="C7">
-        <v>9.368608717233133</v>
+        <v>14.68972359814021</v>
       </c>
       <c r="D7">
-        <v>9.41895691831713</v>
+        <v>3.1590969608794</v>
       </c>
       <c r="E7">
-        <v>7.830565169914963</v>
+        <v>9.574245019254105</v>
       </c>
       <c r="F7">
-        <v>57.30835839525419</v>
+        <v>27.88943000270912</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -611,33 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.59651679154462</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.157838712424068</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.17637604544059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.88587431039624</v>
+      </c>
+      <c r="N7">
+        <v>11.88375633124491</v>
+      </c>
+      <c r="O7">
+        <v>21.68848816836259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.79393977777985</v>
+        <v>22.56950342384484</v>
       </c>
       <c r="C8">
-        <v>10.35835468487424</v>
+        <v>16.17195174104835</v>
       </c>
       <c r="D8">
-        <v>10.00620884025306</v>
+        <v>3.03119539168781</v>
       </c>
       <c r="E8">
-        <v>8.22104887735801</v>
+        <v>10.31224179615128</v>
       </c>
       <c r="F8">
-        <v>62.19821029821638</v>
+        <v>29.9395039774323</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -646,33 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.08116248998737</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.708771332309926</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.46514096428494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.62127702192652</v>
+      </c>
+      <c r="N8">
+        <v>11.53413224264664</v>
+      </c>
+      <c r="O8">
+        <v>23.04800070935071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.03563624672778</v>
+        <v>26.3666529370228</v>
       </c>
       <c r="C9">
-        <v>12.16701996415825</v>
+        <v>18.80431374850956</v>
       </c>
       <c r="D9">
-        <v>11.12190833845198</v>
+        <v>2.782115169961887</v>
       </c>
       <c r="E9">
-        <v>8.987035493866296</v>
+        <v>11.72986400393639</v>
       </c>
       <c r="F9">
-        <v>71.26590482592123</v>
+        <v>33.89801523450377</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -681,33 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.76508782710931</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.777451379155224</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.78797109308654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.71302246173198</v>
+      </c>
+      <c r="N9">
+        <v>10.87012179210048</v>
+      </c>
+      <c r="O9">
+        <v>25.74464823726645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.27369151926584</v>
+        <v>28.92256380146653</v>
       </c>
       <c r="C10">
-        <v>13.4314727769165</v>
+        <v>20.58071387548136</v>
       </c>
       <c r="D10">
-        <v>11.92364481221783</v>
+        <v>2.598229095717656</v>
       </c>
       <c r="E10">
-        <v>9.550840335276197</v>
+        <v>12.88145568940124</v>
       </c>
       <c r="F10">
-        <v>77.63714962750167</v>
+        <v>36.76135247800086</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -716,33 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.61875226536045</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.74500851383008</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.38576559128663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.80732437172744</v>
+      </c>
+      <c r="N10">
+        <v>10.39332573427915</v>
+      </c>
+      <c r="O10">
+        <v>27.73954078759213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.2668449545612</v>
+        <v>30.03799980643254</v>
       </c>
       <c r="C11">
-        <v>13.9972052601114</v>
+        <v>21.3570966841346</v>
       </c>
       <c r="D11">
-        <v>12.28601962439146</v>
+        <v>2.513933685099875</v>
       </c>
       <c r="E11">
-        <v>9.808222411698818</v>
+        <v>13.42407473302555</v>
       </c>
       <c r="F11">
-        <v>80.48368405213856</v>
+        <v>38.07001439171145</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -751,33 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.44187853315853</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.18590272940207</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.09329988491596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.72481203014954</v>
+      </c>
+      <c r="N11">
+        <v>10.1784069440345</v>
+      </c>
+      <c r="O11">
+        <v>28.65047736369313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.63997089489873</v>
+        <v>30.45391307969281</v>
       </c>
       <c r="C12">
-        <v>14.21053056072243</v>
+        <v>21.6467681227423</v>
       </c>
       <c r="D12">
-        <v>12.42308913351141</v>
+        <v>2.481883025916383</v>
       </c>
       <c r="E12">
-        <v>9.905910098440248</v>
+        <v>13.62756416102296</v>
       </c>
       <c r="F12">
-        <v>81.55548169339663</v>
+        <v>38.60249544080983</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -786,33 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.75124042927322</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.35128227775887</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.35887993012162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25.06748082070245</v>
+      </c>
+      <c r="N12">
+        <v>10.09728035401626</v>
+      </c>
+      <c r="O12">
+        <v>28.99606404748044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.55973190415615</v>
+        <v>30.36462137638303</v>
       </c>
       <c r="C13">
-        <v>14.16461917801365</v>
+        <v>21.58457066154185</v>
       </c>
       <c r="D13">
-        <v>12.39357214376113</v>
+        <v>2.488792065455813</v>
       </c>
       <c r="E13">
-        <v>9.884859542429417</v>
+        <v>13.58382348349231</v>
       </c>
       <c r="F13">
-        <v>81.32489822889242</v>
+        <v>38.4879560952748</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -821,33 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.68470787605318</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.31573046807063</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.30177926512045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24.99388763980932</v>
+      </c>
+      <c r="N13">
+        <v>10.11474125510943</v>
+      </c>
+      <c r="O13">
+        <v>28.92160436849923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.2975975483576</v>
+        <v>30.07234512226805</v>
       </c>
       <c r="C14">
-        <v>14.01477087379013</v>
+        <v>21.38101342891711</v>
       </c>
       <c r="D14">
-        <v>12.29729827051157</v>
+        <v>2.511299670002447</v>
       </c>
       <c r="E14">
-        <v>9.81625411529958</v>
+        <v>13.44085434527794</v>
       </c>
       <c r="F14">
-        <v>80.57197532810822</v>
+        <v>38.11388561381892</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -856,33 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.46737324545887</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.19953860668544</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.11519363468748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.75309721403955</v>
+      </c>
+      <c r="N14">
+        <v>10.17172755306257</v>
+      </c>
+      <c r="O14">
+        <v>28.67889515168157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.1366678838607</v>
+        <v>29.89248388644091</v>
       </c>
       <c r="C15">
-        <v>13.92288161144738</v>
+        <v>21.25577252393507</v>
       </c>
       <c r="D15">
-        <v>12.23831398913387</v>
+        <v>2.525068230257956</v>
       </c>
       <c r="E15">
-        <v>9.774263666454313</v>
+        <v>13.35303005576699</v>
       </c>
       <c r="F15">
-        <v>80.11003634460579</v>
+        <v>37.88472144966389</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -891,33 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.33396318068561</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.12817058724371</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.00061283809313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.60499530281234</v>
+      </c>
+      <c r="N15">
+        <v>10.20666631979727</v>
+      </c>
+      <c r="O15">
+        <v>28.53031706098633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.2083356588776</v>
+        <v>28.84874279923202</v>
       </c>
       <c r="C16">
-        <v>13.39434734239938</v>
+        <v>20.52935650996109</v>
       </c>
       <c r="D16">
-        <v>11.89993014036979</v>
+        <v>2.603721845824163</v>
       </c>
       <c r="E16">
-        <v>9.534045138448789</v>
+        <v>12.845702677929</v>
       </c>
       <c r="F16">
-        <v>77.45018497221224</v>
+        <v>36.67664924119391</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -926,33 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.56459943752867</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.71595949049761</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.33917295905856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.74668053794418</v>
+      </c>
+      <c r="N16">
+        <v>10.40740861626796</v>
+      </c>
+      <c r="O16">
+        <v>27.68008819718716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.63285572872575</v>
+        <v>28.19655211530091</v>
       </c>
       <c r="C17">
-        <v>13.06798157606454</v>
+        <v>20.07575808130524</v>
       </c>
       <c r="D17">
-        <v>11.69185769923257</v>
+        <v>2.651781709765461</v>
       </c>
       <c r="E17">
-        <v>9.386965675339507</v>
+        <v>12.5306749609826</v>
       </c>
       <c r="F17">
-        <v>75.80602185260044</v>
+        <v>35.93334028182956</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -961,33 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.08783236895002</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.45998691052841</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>16.92873748554725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23.21131395354803</v>
+      </c>
+      <c r="N17">
+        <v>10.5310436812154</v>
+      </c>
+      <c r="O17">
+        <v>27.15945487860015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.29946292027966</v>
+        <v>27.81695991467957</v>
       </c>
       <c r="C18">
-        <v>12.87934111420416</v>
+        <v>19.8118600073502</v>
       </c>
       <c r="D18">
-        <v>11.57194606213286</v>
+        <v>2.679366043180042</v>
       </c>
       <c r="E18">
-        <v>9.302447120382265</v>
+        <v>12.3480110763022</v>
       </c>
       <c r="F18">
-        <v>74.85537018720362</v>
+        <v>35.50494303710573</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -996,33 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.81167692029208</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.31154207806259</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.69081863302314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.90005005295802</v>
+      </c>
+      <c r="N18">
+        <v>10.60234273342888</v>
+      </c>
+      <c r="O18">
+        <v>26.86031153055595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18615370358641</v>
+        <v>27.68765978175175</v>
       </c>
       <c r="C19">
-        <v>12.81529950587883</v>
+        <v>19.72198675512522</v>
       </c>
       <c r="D19">
-        <v>11.53130112643205</v>
+        <v>2.688696723249913</v>
       </c>
       <c r="E19">
-        <v>9.273841663641532</v>
+        <v>12.28590554352004</v>
       </c>
       <c r="F19">
-        <v>74.53260725134173</v>
+        <v>35.3597421854432</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1031,33 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.71782833209788</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.26106528315534</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.6099342563219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.79408004852832</v>
+      </c>
+      <c r="N19">
+        <v>10.62651645543288</v>
+      </c>
+      <c r="O19">
+        <v>26.75907738713171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.69435992306937</v>
+        <v>28.26643929952243</v>
       </c>
       <c r="C20">
-        <v>13.10281630677641</v>
+        <v>20.12435333509118</v>
       </c>
       <c r="D20">
-        <v>11.71403040994891</v>
+        <v>2.64667197231958</v>
       </c>
       <c r="E20">
-        <v>9.402613937061595</v>
+        <v>12.56436059310063</v>
       </c>
       <c r="F20">
-        <v>75.98155201177246</v>
+        <v>36.01255528473983</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1066,33 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.13878124905289</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.48735979660168</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>16.97261735317454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>23.26864775951706</v>
+      </c>
+      <c r="N20">
+        <v>10.51786332831871</v>
+      </c>
+      <c r="O20">
+        <v>27.2148442567987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.37466749552966</v>
+        <v>30.15836684278017</v>
       </c>
       <c r="C21">
-        <v>14.05880544398287</v>
+        <v>21.44091858154087</v>
       </c>
       <c r="D21">
-        <v>12.32557870661064</v>
+        <v>2.50469245660268</v>
       </c>
       <c r="E21">
-        <v>9.836398232411904</v>
+        <v>13.48289981291449</v>
       </c>
       <c r="F21">
-        <v>80.79328085897419</v>
+        <v>38.22384533857522</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1101,33 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.53126822894508</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.23370754082176</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.17005827127214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.82394990228661</v>
+      </c>
+      <c r="N21">
+        <v>10.15498245161074</v>
+      </c>
+      <c r="O21">
+        <v>28.75016595251483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.45597671280096</v>
+        <v>31.35726643209691</v>
       </c>
       <c r="C22">
-        <v>14.6786026789447</v>
+        <v>22.2762741090717</v>
       </c>
       <c r="D22">
-        <v>12.72448766496013</v>
+        <v>2.411127659683183</v>
       </c>
       <c r="E22">
-        <v>10.12126944782908</v>
+        <v>14.07175922501284</v>
       </c>
       <c r="F22">
-        <v>83.90322331595166</v>
+        <v>39.76800470979586</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1136,33 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.42804603462866</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.71244628620166</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.93922920090563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.81283056374314</v>
+      </c>
+      <c r="N22">
+        <v>9.919319345819583</v>
+      </c>
+      <c r="O22">
+        <v>29.87201609464723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.88016528957335</v>
+        <v>30.72071525027062</v>
       </c>
       <c r="C23">
-        <v>14.34808738005089</v>
+        <v>21.83264068317524</v>
       </c>
       <c r="D23">
-        <v>12.51157879775004</v>
+        <v>2.461147662913441</v>
       </c>
       <c r="E23">
-        <v>9.969062831337627</v>
+        <v>13.75843716615097</v>
       </c>
       <c r="F23">
-        <v>82.24603699672615</v>
+        <v>38.9454547377209</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1171,33 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.95042417246318</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11.4576656804094</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.52977364252716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25.28746201042726</v>
+      </c>
+      <c r="N23">
+        <v>10.04496640957812</v>
+      </c>
+      <c r="O23">
+        <v>29.24159193993971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.66656183934094</v>
+        <v>28.23485777680008</v>
       </c>
       <c r="C24">
-        <v>13.08707069916557</v>
+        <v>20.1023931507754</v>
       </c>
       <c r="D24">
-        <v>11.70400703746501</v>
+        <v>2.648982224840736</v>
       </c>
       <c r="E24">
-        <v>9.395539241643935</v>
+        <v>12.54913616448238</v>
       </c>
       <c r="F24">
-        <v>75.90221174247613</v>
+        <v>35.97674549433638</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1206,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.11575370370329</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.47498852880788</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>16.9527853825341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>23.24273799040557</v>
+      </c>
+      <c r="N24">
+        <v>10.52382147977955</v>
+      </c>
+      <c r="O24">
+        <v>27.18980218101227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.18572849726294</v>
+        <v>25.38157651180288</v>
       </c>
       <c r="C25">
-        <v>11.69035990219386</v>
+        <v>18.12062813820978</v>
       </c>
       <c r="D25">
-        <v>10.82363496615391</v>
+        <v>2.849506579435786</v>
       </c>
       <c r="E25">
-        <v>8.779774008782299</v>
+        <v>11.34975399378188</v>
       </c>
       <c r="F25">
-        <v>68.86678987438839</v>
+        <v>32.83490140025174</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1241,13 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.06142578930708</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.489696478170107</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.17996928844751</v>
+        <v>20.90873675056016</v>
+      </c>
+      <c r="N25">
+        <v>11.04766473801615</v>
+      </c>
+      <c r="O25">
+        <v>25.01262480582539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.12233541650224</v>
+        <v>15.32601181885287</v>
       </c>
       <c r="C2">
-        <v>16.5546806697091</v>
+        <v>7.494798080595786</v>
       </c>
       <c r="D2">
-        <v>2.996726103266788</v>
+        <v>2.016457401668231</v>
       </c>
       <c r="E2">
-        <v>10.51031719471412</v>
+        <v>5.846531899418657</v>
       </c>
       <c r="F2">
-        <v>30.4913117686239</v>
+        <v>36.47768740746915</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25.37879626966212</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.921609186548745</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.15234493898955</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.910634731028805</v>
       </c>
       <c r="M2">
-        <v>19.06998990658158</v>
+        <v>11.45660717750067</v>
       </c>
       <c r="N2">
-        <v>11.44094414464478</v>
+        <v>17.15658937652175</v>
       </c>
       <c r="O2">
-        <v>23.41876849372942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.48779243342423</v>
+        <v>14.58445236598798</v>
       </c>
       <c r="C3">
-        <v>15.42362742705088</v>
+        <v>6.983031541482383</v>
       </c>
       <c r="D3">
-        <v>3.096877440854898</v>
+        <v>1.962600194155037</v>
       </c>
       <c r="E3">
-        <v>9.93366245408099</v>
+        <v>5.856759027075303</v>
       </c>
       <c r="F3">
-        <v>28.88655400581874</v>
+        <v>36.06706732142085</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>25.30410439286784</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.955289557294755</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.57376094379851</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.864775308091101</v>
       </c>
       <c r="M3">
-        <v>17.7446769895799</v>
+        <v>11.21468864199337</v>
       </c>
       <c r="N3">
-        <v>11.71290821281779</v>
+        <v>17.33288428422432</v>
       </c>
       <c r="O3">
-        <v>22.34597815039121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.43176971459767</v>
+        <v>14.11877072326251</v>
       </c>
       <c r="C4">
-        <v>14.69381931052205</v>
+        <v>6.683909527894945</v>
       </c>
       <c r="D4">
-        <v>3.158755752927542</v>
+        <v>1.929380144655183</v>
       </c>
       <c r="E4">
-        <v>9.576216620661606</v>
+        <v>5.864233513176551</v>
       </c>
       <c r="F4">
-        <v>27.89489198796512</v>
+        <v>35.8354989680087</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>25.2720319908235</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.976662159995874</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.21292971599425</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.839294960535369</v>
       </c>
       <c r="M4">
-        <v>16.89066466338701</v>
+        <v>11.06942122115048</v>
       </c>
       <c r="N4">
-        <v>11.88281534532493</v>
+        <v>17.44521684167064</v>
       </c>
       <c r="O4">
-        <v>21.6920687070088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.98806268128531</v>
+        <v>13.92665085817222</v>
       </c>
       <c r="C5">
-        <v>14.38741157644144</v>
+        <v>6.559324391827976</v>
       </c>
       <c r="D5">
-        <v>3.184095899955835</v>
+        <v>1.915818308307025</v>
       </c>
       <c r="E5">
-        <v>9.429814963769005</v>
+        <v>5.867576804224985</v>
       </c>
       <c r="F5">
-        <v>27.48956957907374</v>
+        <v>35.74621680474115</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>25.26232009304886</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.985549261955007</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.06469193920746</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.829578827084877</v>
       </c>
       <c r="M5">
-        <v>16.53236115534627</v>
+        <v>11.01110206572777</v>
       </c>
       <c r="N5">
-        <v>11.95282277200391</v>
+        <v>17.49201649223077</v>
       </c>
       <c r="O5">
-        <v>21.42703166936983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.91357261101822</v>
+        <v>13.8946157594009</v>
       </c>
       <c r="C6">
-        <v>14.33598568694143</v>
+        <v>6.538477338119329</v>
       </c>
       <c r="D6">
-        <v>3.188311887363873</v>
+        <v>1.9135653264397</v>
       </c>
       <c r="E6">
-        <v>9.405464333079399</v>
+        <v>5.868149828457726</v>
       </c>
       <c r="F6">
-        <v>27.42220587463188</v>
+        <v>35.73169598115717</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>25.26090705267777</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.987035781459942</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.04001150378088</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.828005587710158</v>
       </c>
       <c r="M6">
-        <v>16.47223939755159</v>
+        <v>11.0014728987332</v>
       </c>
       <c r="N6">
-        <v>11.9644948952441</v>
+        <v>17.49984923297482</v>
       </c>
       <c r="O6">
-        <v>21.38311689290634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.42584010321653</v>
+        <v>14.11618887948114</v>
       </c>
       <c r="C7">
-        <v>14.68972359814021</v>
+        <v>6.682240104217953</v>
       </c>
       <c r="D7">
-        <v>3.1590969608794</v>
+        <v>1.929197324758914</v>
       </c>
       <c r="E7">
-        <v>9.574245019254105</v>
+        <v>5.864277401871595</v>
       </c>
       <c r="F7">
-        <v>27.88943000270912</v>
+        <v>35.83427441122885</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>25.27188756122311</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.976781291091028</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.21093507924049</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.839161231768371</v>
       </c>
       <c r="M7">
-        <v>16.88587431039624</v>
+        <v>11.06863107801514</v>
       </c>
       <c r="N7">
-        <v>11.88375633124491</v>
+        <v>17.44584386003727</v>
       </c>
       <c r="O7">
-        <v>21.68848816836259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.56950342384484</v>
+        <v>15.07261274361749</v>
       </c>
       <c r="C8">
-        <v>16.17195174104835</v>
+        <v>7.314858302300868</v>
       </c>
       <c r="D8">
-        <v>3.03119539168781</v>
+        <v>1.997926697145928</v>
       </c>
       <c r="E8">
-        <v>10.31224179615128</v>
+        <v>5.849808260389104</v>
       </c>
       <c r="F8">
-        <v>29.9395039774323</v>
+        <v>36.33179103279657</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25.35011471101554</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.933080502247298</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.95412227699603</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.894263259462001</v>
       </c>
       <c r="M8">
-        <v>18.62127702192652</v>
+        <v>11.37254811131536</v>
       </c>
       <c r="N8">
-        <v>11.53413224264664</v>
+        <v>17.21652460138524</v>
       </c>
       <c r="O8">
-        <v>23.04800070935071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.3666529370228</v>
+        <v>16.85681451347392</v>
       </c>
       <c r="C9">
-        <v>18.80431374850956</v>
+        <v>8.549927820350902</v>
       </c>
       <c r="D9">
-        <v>2.782115169961887</v>
+        <v>2.130974335858136</v>
       </c>
       <c r="E9">
-        <v>11.72986400393639</v>
+        <v>5.831067325987997</v>
       </c>
       <c r="F9">
-        <v>33.89801523450377</v>
+        <v>37.47397581733063</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>25.61785760101439</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.852717341888162</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.35961474739368</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.023810817427874</v>
       </c>
       <c r="M9">
-        <v>21.71302246173198</v>
+        <v>11.99208052871543</v>
       </c>
       <c r="N9">
-        <v>10.87012179210048</v>
+        <v>16.79952239795146</v>
       </c>
       <c r="O9">
-        <v>25.74464823726645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.92256380146653</v>
+        <v>18.10244967490387</v>
       </c>
       <c r="C10">
-        <v>20.58071387548136</v>
+        <v>9.379053276502489</v>
       </c>
       <c r="D10">
-        <v>2.598229095717656</v>
+        <v>2.227081702663771</v>
       </c>
       <c r="E10">
-        <v>12.88145568940124</v>
+        <v>5.82339941853071</v>
       </c>
       <c r="F10">
-        <v>36.76135247800086</v>
+        <v>38.41914526807191</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>25.89111663851738</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.796686340010483</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.35236754090903</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.132417350746293</v>
       </c>
       <c r="M10">
-        <v>23.80732437172744</v>
+        <v>12.45856236310792</v>
       </c>
       <c r="N10">
-        <v>10.39332573427915</v>
+        <v>16.51357148100038</v>
       </c>
       <c r="O10">
-        <v>27.73954078759213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.03799980643254</v>
+        <v>18.65364215235969</v>
       </c>
       <c r="C11">
-        <v>21.3570966841346</v>
+        <v>9.739965879062209</v>
       </c>
       <c r="D11">
-        <v>2.513933685099875</v>
+        <v>2.270359027850695</v>
       </c>
       <c r="E11">
-        <v>13.42407473302555</v>
+        <v>5.821291816815716</v>
       </c>
       <c r="F11">
-        <v>38.07001439171145</v>
+        <v>38.87305471380421</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>26.03355057798847</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.771793795371153</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.79414117335166</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.184807885753036</v>
       </c>
       <c r="M11">
-        <v>24.72481203014954</v>
+        <v>12.672661541608</v>
       </c>
       <c r="N11">
-        <v>10.1784069440345</v>
+        <v>16.3880742319954</v>
       </c>
       <c r="O11">
-        <v>28.65047736369313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.45391307969281</v>
+        <v>18.86007226392337</v>
       </c>
       <c r="C12">
-        <v>21.6467681227423</v>
+        <v>9.874360681073211</v>
       </c>
       <c r="D12">
-        <v>2.481883025916383</v>
+        <v>2.286678624488006</v>
       </c>
       <c r="E12">
-        <v>13.62756416102296</v>
+        <v>5.820697382183073</v>
       </c>
       <c r="F12">
-        <v>38.60249544080983</v>
+        <v>39.04845544777707</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>26.09021900583212</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.762448405906057</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.95994758956941</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.205081340063613</v>
       </c>
       <c r="M12">
-        <v>25.06748082070245</v>
+        <v>12.75396639928371</v>
       </c>
       <c r="N12">
-        <v>10.09728035401626</v>
+        <v>16.34122826595349</v>
       </c>
       <c r="O12">
-        <v>28.99606404748044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.36462137638303</v>
+        <v>18.81571675441122</v>
       </c>
       <c r="C13">
-        <v>21.58457066154185</v>
+        <v>9.84551647065838</v>
       </c>
       <c r="D13">
-        <v>2.488792065455813</v>
+        <v>2.283167014762232</v>
       </c>
       <c r="E13">
-        <v>13.58382348349231</v>
+        <v>5.820816259049968</v>
       </c>
       <c r="F13">
-        <v>38.4879560952748</v>
+        <v>39.01052223881891</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>26.0778909203237</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.764457586742781</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.9243050581917</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.200695688513214</v>
       </c>
       <c r="M13">
-        <v>24.99388763980932</v>
+        <v>12.73644631354673</v>
       </c>
       <c r="N13">
-        <v>10.11474125510943</v>
+        <v>16.35128694076759</v>
       </c>
       <c r="O13">
-        <v>28.92160436849923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.07234512226805</v>
+        <v>18.67067158377903</v>
       </c>
       <c r="C14">
-        <v>21.38101342891711</v>
+        <v>9.751067832534503</v>
       </c>
       <c r="D14">
-        <v>2.511299670002447</v>
+        <v>2.27170304655961</v>
       </c>
       <c r="E14">
-        <v>13.44085434527794</v>
+        <v>5.821238799327594</v>
       </c>
       <c r="F14">
-        <v>38.11388561381892</v>
+        <v>38.88741416456389</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>26.03815724587879</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.771023352707355</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.80781221763202</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.186467060673901</v>
       </c>
       <c r="M14">
-        <v>24.75309721403955</v>
+        <v>12.67934614851556</v>
       </c>
       <c r="N14">
-        <v>10.17172755306257</v>
+        <v>16.38420649914011</v>
       </c>
       <c r="O14">
-        <v>28.67889515168157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.89248388644091</v>
+        <v>18.5815267395587</v>
       </c>
       <c r="C15">
-        <v>21.25577252393507</v>
+        <v>9.692921015642407</v>
       </c>
       <c r="D15">
-        <v>2.525068230257956</v>
+        <v>2.264671990766171</v>
       </c>
       <c r="E15">
-        <v>13.35303005576699</v>
+        <v>5.821524301890581</v>
       </c>
       <c r="F15">
-        <v>37.88472144966389</v>
+        <v>38.8124668791073</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>26.01417875284486</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.775055456511208</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.73626210526034</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.177808330374886</v>
       </c>
       <c r="M15">
-        <v>24.60499530281234</v>
+        <v>12.64439947249717</v>
       </c>
       <c r="N15">
-        <v>10.20666631979727</v>
+        <v>16.40445945869092</v>
       </c>
       <c r="O15">
-        <v>28.53031706098633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.84874279923202</v>
+        <v>18.06611016855152</v>
       </c>
       <c r="C16">
-        <v>20.52935650996109</v>
+        <v>9.35514487391208</v>
       </c>
       <c r="D16">
-        <v>2.603721845824163</v>
+        <v>2.224244053623081</v>
       </c>
       <c r="E16">
-        <v>12.845702677929</v>
+        <v>5.823565364908712</v>
       </c>
       <c r="F16">
-        <v>36.67664924119391</v>
+        <v>38.38996911791918</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>25.88218363277318</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.798324716152658</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.32329222734244</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.129053995446294</v>
       </c>
       <c r="M16">
-        <v>23.74668053794418</v>
+        <v>12.44460484538799</v>
       </c>
       <c r="N16">
-        <v>10.40740861626796</v>
+        <v>16.52186670927013</v>
       </c>
       <c r="O16">
-        <v>27.68008819718716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.19655211530091</v>
+        <v>17.74590043790955</v>
       </c>
       <c r="C17">
-        <v>20.07575808130524</v>
+        <v>9.143808791914559</v>
       </c>
       <c r="D17">
-        <v>2.651781709765461</v>
+        <v>2.199325329778065</v>
       </c>
       <c r="E17">
-        <v>12.5306749609826</v>
+        <v>5.82517460215737</v>
       </c>
       <c r="F17">
-        <v>35.93334028182956</v>
+        <v>38.13696359527532</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.80593973581631</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.812749008417081</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.06737284499898</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.09991280087749</v>
       </c>
       <c r="M17">
-        <v>23.21131395354803</v>
+        <v>12.32249052264548</v>
       </c>
       <c r="N17">
-        <v>10.5310436812154</v>
+        <v>16.59507786213112</v>
       </c>
       <c r="O17">
-        <v>27.15945487860015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.81695991467957</v>
+        <v>17.56027221552044</v>
       </c>
       <c r="C18">
-        <v>19.8118600073502</v>
+        <v>9.020719232861499</v>
       </c>
       <c r="D18">
-        <v>2.679366043180042</v>
+        <v>2.184951269641005</v>
       </c>
       <c r="E18">
-        <v>12.3480110763022</v>
+        <v>5.826229804010021</v>
       </c>
       <c r="F18">
-        <v>35.50494303710573</v>
+        <v>37.9936911242886</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>25.76378481774649</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.821101910593342</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.91925173716442</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.083432192523592</v>
       </c>
       <c r="M18">
-        <v>22.90005005295802</v>
+        <v>12.25243406686684</v>
       </c>
       <c r="N18">
-        <v>10.60234273342888</v>
+        <v>16.63761709467198</v>
       </c>
       <c r="O18">
-        <v>26.86031153055595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.68765978175175</v>
+        <v>17.49717496116284</v>
       </c>
       <c r="C19">
-        <v>19.72198675512522</v>
+        <v>8.978777804294777</v>
       </c>
       <c r="D19">
-        <v>2.688696723249913</v>
+        <v>2.180077522468266</v>
       </c>
       <c r="E19">
-        <v>12.28590554352004</v>
+        <v>5.826609188868213</v>
       </c>
       <c r="F19">
-        <v>35.3597421854432</v>
+        <v>37.94556578312158</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.74979985298823</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.823939894569008</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.86894444009074</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.077900191858137</v>
       </c>
       <c r="M19">
-        <v>22.79408004852832</v>
+        <v>12.22874653689269</v>
       </c>
       <c r="N19">
-        <v>10.62651645543288</v>
+        <v>16.65209352845169</v>
       </c>
       <c r="O19">
-        <v>26.75907738713171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.26643929952243</v>
+        <v>17.78013820501496</v>
       </c>
       <c r="C20">
-        <v>20.12435333509118</v>
+        <v>9.166464265483752</v>
       </c>
       <c r="D20">
-        <v>2.64667197231958</v>
+        <v>2.201982304935982</v>
       </c>
       <c r="E20">
-        <v>12.56436059310063</v>
+        <v>5.824989846073549</v>
       </c>
       <c r="F20">
-        <v>36.01255528473983</v>
+        <v>38.16366313361571</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25.81387933855274</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.811207711675323</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.09471200913245</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.102985850384778</v>
       </c>
       <c r="M20">
-        <v>23.26864775951706</v>
+        <v>12.33547144798324</v>
       </c>
       <c r="N20">
-        <v>10.51786332831871</v>
+        <v>16.58723977551814</v>
       </c>
       <c r="O20">
-        <v>27.2148442567987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.15836684278017</v>
+        <v>18.71333757870891</v>
       </c>
       <c r="C21">
-        <v>21.44091858154087</v>
+        <v>9.778870898086272</v>
       </c>
       <c r="D21">
-        <v>2.50469245660268</v>
+        <v>2.275072182657043</v>
       </c>
       <c r="E21">
-        <v>13.48289981291449</v>
+        <v>5.821109118124382</v>
       </c>
       <c r="F21">
-        <v>38.22384533857522</v>
+        <v>38.92347799949351</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>26.04975283541197</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.769092673528424</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.84206969404116</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.190634524570968</v>
       </c>
       <c r="M21">
-        <v>24.82394990228661</v>
+        <v>12.6961119107688</v>
       </c>
       <c r="N21">
-        <v>10.15498245161074</v>
+        <v>16.37451868783081</v>
       </c>
       <c r="O21">
-        <v>28.75016595251483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.35726643209691</v>
+        <v>19.30984865709652</v>
       </c>
       <c r="C22">
-        <v>22.2762741090717</v>
+        <v>10.16588704053965</v>
       </c>
       <c r="D22">
-        <v>2.411127659683183</v>
+        <v>2.322440054277599</v>
       </c>
       <c r="E22">
-        <v>14.07175922501284</v>
+        <v>5.819762716684064</v>
       </c>
       <c r="F22">
-        <v>39.76800470979586</v>
+        <v>39.44058662938789</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>26.21989340093874</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.742036969740188</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.3218470794653</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.250452093170626</v>
       </c>
       <c r="M22">
-        <v>25.81283056374314</v>
+        <v>12.93313777093502</v>
       </c>
       <c r="N22">
-        <v>9.919319345819583</v>
+        <v>16.2394510600241</v>
       </c>
       <c r="O22">
-        <v>29.87201609464723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.72071525027062</v>
+        <v>18.99272138362043</v>
       </c>
       <c r="C23">
-        <v>21.83264068317524</v>
+        <v>9.960517192487611</v>
       </c>
       <c r="D23">
-        <v>2.461147662913441</v>
+        <v>2.297196682280264</v>
       </c>
       <c r="E23">
-        <v>13.75843716615097</v>
+        <v>5.820370614779563</v>
       </c>
       <c r="F23">
-        <v>38.9454547377209</v>
+        <v>39.16269295279358</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>26.12758141499025</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.756435898716357</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.06659063616767</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.218292672145971</v>
       </c>
       <c r="M23">
-        <v>25.28746201042726</v>
+        <v>12.80652353678407</v>
       </c>
       <c r="N23">
-        <v>10.04496640957812</v>
+        <v>16.31117009277209</v>
       </c>
       <c r="O23">
-        <v>29.24159193993971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.23485777680008</v>
+        <v>17.76466408707675</v>
       </c>
       <c r="C24">
-        <v>20.1023931507754</v>
+        <v>9.156226681950063</v>
       </c>
       <c r="D24">
-        <v>2.648982224840736</v>
+        <v>2.200781235428884</v>
       </c>
       <c r="E24">
-        <v>12.54913616448238</v>
+        <v>5.825072969667449</v>
       </c>
       <c r="F24">
-        <v>35.97674549433638</v>
+        <v>38.15158547569239</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>25.81028462476493</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.811904344107645</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.08235505001539</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.101595674581443</v>
       </c>
       <c r="M24">
-        <v>23.24273799040557</v>
+        <v>12.32960230519987</v>
       </c>
       <c r="N24">
-        <v>10.52382147977955</v>
+        <v>16.59078197674361</v>
       </c>
       <c r="O24">
-        <v>27.18980218101227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.38157651180288</v>
+        <v>16.38503960391184</v>
       </c>
       <c r="C25">
-        <v>18.12062813820978</v>
+        <v>8.229783193500195</v>
       </c>
       <c r="D25">
-        <v>2.849506579435786</v>
+        <v>2.095233813580902</v>
       </c>
       <c r="E25">
-        <v>11.34975399378188</v>
+        <v>5.835083478035945</v>
       </c>
       <c r="F25">
-        <v>32.83490140025174</v>
+        <v>37.14667583424785</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>25.53248279835683</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.873910614000186</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.98589990416598</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.986429040607743</v>
       </c>
       <c r="M25">
-        <v>20.90873675056016</v>
+        <v>11.82228478171153</v>
       </c>
       <c r="N25">
-        <v>11.04766473801615</v>
+        <v>16.90879011754149</v>
       </c>
       <c r="O25">
-        <v>25.01262480582539</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.32601181885287</v>
+        <v>18.89028610029899</v>
       </c>
       <c r="C2">
-        <v>7.494798080595786</v>
+        <v>6.345714281256412</v>
       </c>
       <c r="D2">
-        <v>2.016457401668231</v>
+        <v>4.378109198514563</v>
       </c>
       <c r="E2">
-        <v>5.846531899418657</v>
+        <v>10.42935597800257</v>
       </c>
       <c r="F2">
-        <v>36.47768740746915</v>
+        <v>51.61517047106191</v>
       </c>
       <c r="I2">
-        <v>25.37879626966212</v>
+        <v>37.34093666912185</v>
       </c>
       <c r="J2">
-        <v>5.921609186548745</v>
+        <v>9.982248629945566</v>
       </c>
       <c r="K2">
-        <v>13.15234493898955</v>
+        <v>16.93002746922933</v>
       </c>
       <c r="L2">
-        <v>6.910634731028805</v>
+        <v>11.80697136171489</v>
       </c>
       <c r="M2">
-        <v>11.45660717750067</v>
+        <v>18.25840781137189</v>
       </c>
       <c r="N2">
-        <v>17.15658937652175</v>
+        <v>25.60714598775348</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.58445236598798</v>
+        <v>18.79215134195095</v>
       </c>
       <c r="C3">
-        <v>6.983031541482383</v>
+        <v>6.219701808648485</v>
       </c>
       <c r="D3">
-        <v>1.962600194155037</v>
+        <v>4.378831251613356</v>
       </c>
       <c r="E3">
-        <v>5.856759027075303</v>
+        <v>10.44275322461251</v>
       </c>
       <c r="F3">
-        <v>36.06706732142085</v>
+        <v>51.64967152508014</v>
       </c>
       <c r="I3">
-        <v>25.30410439286784</v>
+        <v>37.39697471182244</v>
       </c>
       <c r="J3">
-        <v>5.955289557294755</v>
+        <v>9.994377578097199</v>
       </c>
       <c r="K3">
-        <v>12.57376094379851</v>
+        <v>16.86433294254153</v>
       </c>
       <c r="L3">
-        <v>6.864775308091101</v>
+        <v>11.82281063360845</v>
       </c>
       <c r="M3">
-        <v>11.21468864199337</v>
+        <v>18.26322245136708</v>
       </c>
       <c r="N3">
-        <v>17.33288428422432</v>
+        <v>25.66099979129036</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.11877072326251</v>
+        <v>18.73593723290201</v>
       </c>
       <c r="C4">
-        <v>6.683909527894945</v>
+        <v>6.142998056084868</v>
       </c>
       <c r="D4">
-        <v>1.929380144655183</v>
+        <v>4.379658938110849</v>
       </c>
       <c r="E4">
-        <v>5.864233513176551</v>
+        <v>10.45162027778671</v>
       </c>
       <c r="F4">
-        <v>35.8354989680087</v>
+        <v>51.6795364086974</v>
       </c>
       <c r="I4">
-        <v>25.2720319908235</v>
+        <v>37.43669907214367</v>
       </c>
       <c r="J4">
-        <v>5.976662159995874</v>
+        <v>10.00223420293594</v>
       </c>
       <c r="K4">
-        <v>12.21292971599425</v>
+        <v>16.82754616970398</v>
       </c>
       <c r="L4">
-        <v>6.839294960535369</v>
+        <v>11.83390621630215</v>
       </c>
       <c r="M4">
-        <v>11.06942122115048</v>
+        <v>18.26899284731092</v>
       </c>
       <c r="N4">
-        <v>17.44521684167064</v>
+        <v>25.69598810386558</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.92665085817222</v>
+        <v>18.71406519095684</v>
       </c>
       <c r="C5">
-        <v>6.559324391827976</v>
+        <v>6.111956571874066</v>
       </c>
       <c r="D5">
-        <v>1.915818308307025</v>
+        <v>4.380093312407942</v>
       </c>
       <c r="E5">
-        <v>5.867576804224985</v>
+        <v>10.45539529493552</v>
       </c>
       <c r="F5">
-        <v>35.74621680474115</v>
+        <v>51.69388899746361</v>
       </c>
       <c r="I5">
-        <v>25.26232009304886</v>
+        <v>37.45422327083317</v>
       </c>
       <c r="J5">
-        <v>5.985549261955007</v>
+        <v>10.00553910023722</v>
       </c>
       <c r="K5">
-        <v>12.06469193920746</v>
+        <v>16.81345958079615</v>
       </c>
       <c r="L5">
-        <v>6.829578827084877</v>
+        <v>11.83877274431724</v>
       </c>
       <c r="M5">
-        <v>11.01110206572777</v>
+        <v>18.27205337791758</v>
       </c>
       <c r="N5">
-        <v>17.49201649223077</v>
+        <v>25.71073014396528</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.8946157594009</v>
+        <v>18.71049644733685</v>
       </c>
       <c r="C6">
-        <v>6.538477338119329</v>
+        <v>6.10681660216491</v>
       </c>
       <c r="D6">
-        <v>1.9135653264397</v>
+        <v>4.380171316279412</v>
       </c>
       <c r="E6">
-        <v>5.868149828457726</v>
+        <v>10.45603190733874</v>
       </c>
       <c r="F6">
-        <v>35.73169598115717</v>
+        <v>51.69640401798823</v>
       </c>
       <c r="I6">
-        <v>25.26090705267777</v>
+        <v>37.45721382894713</v>
       </c>
       <c r="J6">
-        <v>5.987035781459942</v>
+        <v>10.00609412166712</v>
       </c>
       <c r="K6">
-        <v>12.04001150378088</v>
+        <v>16.81117545139081</v>
       </c>
       <c r="L6">
-        <v>6.828005587710158</v>
+        <v>11.83960167633509</v>
       </c>
       <c r="M6">
-        <v>11.0014728987332</v>
+        <v>18.27260443792631</v>
       </c>
       <c r="N6">
-        <v>17.49984923297482</v>
+        <v>25.71320730430465</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.11618887948114</v>
+        <v>18.73563804088604</v>
       </c>
       <c r="C7">
-        <v>6.682240104217953</v>
+        <v>6.142578482079656</v>
       </c>
       <c r="D7">
-        <v>1.929197324758914</v>
+        <v>4.379664402555576</v>
       </c>
       <c r="E7">
-        <v>5.864277401871595</v>
+        <v>10.45167053403384</v>
       </c>
       <c r="F7">
-        <v>35.83427441122885</v>
+        <v>51.67972113749503</v>
       </c>
       <c r="I7">
-        <v>25.27188756122311</v>
+        <v>37.43693000055298</v>
       </c>
       <c r="J7">
-        <v>5.976781291091028</v>
+        <v>10.00227835543138</v>
       </c>
       <c r="K7">
-        <v>12.21093507924049</v>
+        <v>16.82735251690924</v>
       </c>
       <c r="L7">
-        <v>6.839161231768371</v>
+        <v>11.83397045059701</v>
       </c>
       <c r="M7">
-        <v>11.06863107801514</v>
+        <v>18.26903125011813</v>
       </c>
       <c r="N7">
-        <v>17.44584386003727</v>
+        <v>25.69618495942849</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.07261274361749</v>
+        <v>18.85562267614499</v>
       </c>
       <c r="C8">
-        <v>7.314858302300868</v>
+        <v>6.302155016003737</v>
       </c>
       <c r="D8">
-        <v>1.997926697145928</v>
+        <v>4.3782786579512</v>
       </c>
       <c r="E8">
-        <v>5.849808260389104</v>
+        <v>10.43384253889257</v>
       </c>
       <c r="F8">
-        <v>36.33179103279657</v>
+        <v>51.62526453038361</v>
       </c>
       <c r="I8">
-        <v>25.35011471101554</v>
+        <v>37.35915468090557</v>
       </c>
       <c r="J8">
-        <v>5.933080502247298</v>
+        <v>9.986345907708863</v>
       </c>
       <c r="K8">
-        <v>12.95412227699603</v>
+        <v>16.90664652862556</v>
       </c>
       <c r="L8">
-        <v>6.894263259462001</v>
+        <v>11.81214862646519</v>
       </c>
       <c r="M8">
-        <v>11.37254811131536</v>
+        <v>18.25948471358965</v>
       </c>
       <c r="N8">
-        <v>17.21652460138524</v>
+        <v>25.625316349617</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.85681451347392</v>
+        <v>19.12205066372569</v>
       </c>
       <c r="C9">
-        <v>8.549927820350902</v>
+        <v>6.618316540046903</v>
       </c>
       <c r="D9">
-        <v>2.130974335858136</v>
+        <v>4.378591483282851</v>
       </c>
       <c r="E9">
-        <v>5.831067325987997</v>
+        <v>10.40395032879017</v>
       </c>
       <c r="F9">
-        <v>37.47397581733063</v>
+        <v>51.58735985544781</v>
       </c>
       <c r="I9">
-        <v>25.61785760101439</v>
+        <v>37.24885406759996</v>
       </c>
       <c r="J9">
-        <v>5.852717341888162</v>
+        <v>9.95833665697142</v>
       </c>
       <c r="K9">
-        <v>14.35961474739368</v>
+        <v>17.08974813503568</v>
       </c>
       <c r="L9">
-        <v>7.023810817427874</v>
+        <v>11.7802084241278</v>
       </c>
       <c r="M9">
-        <v>11.99208052871543</v>
+        <v>18.26302487900172</v>
       </c>
       <c r="N9">
-        <v>16.79952239795146</v>
+        <v>25.50155787286496</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.10244967490387</v>
+        <v>19.33544772260212</v>
       </c>
       <c r="C10">
-        <v>9.379053276502489</v>
+        <v>6.849874373355015</v>
       </c>
       <c r="D10">
-        <v>2.227081702663771</v>
+        <v>4.38064264863013</v>
       </c>
       <c r="E10">
-        <v>5.82339941853071</v>
+        <v>10.38505352178071</v>
       </c>
       <c r="F10">
-        <v>38.41914526807191</v>
+        <v>51.60148158303814</v>
       </c>
       <c r="I10">
-        <v>25.89111663851738</v>
+        <v>37.19358929175828</v>
       </c>
       <c r="J10">
-        <v>5.796686340010483</v>
+        <v>9.939710114260828</v>
       </c>
       <c r="K10">
-        <v>15.35236754090903</v>
+        <v>17.24028403889915</v>
       </c>
       <c r="L10">
-        <v>7.132417350746293</v>
+        <v>11.76333084699548</v>
       </c>
       <c r="M10">
-        <v>12.45856236310792</v>
+        <v>18.27909436816181</v>
       </c>
       <c r="N10">
-        <v>16.51357148100038</v>
+        <v>25.41985938350758</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.65364215235969</v>
+        <v>19.43605230865415</v>
       </c>
       <c r="C11">
-        <v>9.739965879062209</v>
+        <v>6.954518858086117</v>
       </c>
       <c r="D11">
-        <v>2.270359027850695</v>
+        <v>4.381965514924827</v>
       </c>
       <c r="E11">
-        <v>5.821291816815716</v>
+        <v>10.37711716149373</v>
       </c>
       <c r="F11">
-        <v>38.87305471380421</v>
+        <v>51.6170006435634</v>
       </c>
       <c r="I11">
-        <v>26.03355057798847</v>
+        <v>37.17404894063046</v>
       </c>
       <c r="J11">
-        <v>5.771793795371153</v>
+        <v>9.931656033431727</v>
       </c>
       <c r="K11">
-        <v>15.79414117335166</v>
+        <v>17.31204920798094</v>
       </c>
       <c r="L11">
-        <v>7.184807885753036</v>
+        <v>11.75707723805228</v>
       </c>
       <c r="M11">
-        <v>12.672661541608</v>
+        <v>18.2893028902166</v>
       </c>
       <c r="N11">
-        <v>16.3880742319954</v>
+        <v>25.38468607534722</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.86007226392337</v>
+        <v>19.47462864632365</v>
       </c>
       <c r="C12">
-        <v>9.874360681073211</v>
+        <v>6.994003238533271</v>
       </c>
       <c r="D12">
-        <v>2.286678624488006</v>
+        <v>4.382521985479924</v>
       </c>
       <c r="E12">
-        <v>5.820697382183073</v>
+        <v>10.37420634434596</v>
       </c>
       <c r="F12">
-        <v>39.04845544777707</v>
+        <v>51.62418216077639</v>
       </c>
       <c r="I12">
-        <v>26.09021900583212</v>
+        <v>37.16745477362657</v>
       </c>
       <c r="J12">
-        <v>5.762448405906057</v>
+        <v>9.928666127576401</v>
       </c>
       <c r="K12">
-        <v>15.95994758956941</v>
+        <v>17.33967956459631</v>
       </c>
       <c r="L12">
-        <v>7.205081340063613</v>
+        <v>11.75491335339765</v>
       </c>
       <c r="M12">
-        <v>12.75396639928371</v>
+        <v>18.29358269226977</v>
       </c>
       <c r="N12">
-        <v>16.34122826595349</v>
+        <v>25.37165256438008</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81571675441122</v>
+        <v>19.46629966647525</v>
       </c>
       <c r="C13">
-        <v>9.84551647065838</v>
+        <v>6.985506550202258</v>
       </c>
       <c r="D13">
-        <v>2.283167014762232</v>
+        <v>4.382399678309422</v>
       </c>
       <c r="E13">
-        <v>5.820816259049968</v>
+        <v>10.37482904358711</v>
       </c>
       <c r="F13">
-        <v>39.01052223881891</v>
+        <v>51.62257751862543</v>
       </c>
       <c r="I13">
-        <v>26.0778909203237</v>
+        <v>37.16883912852326</v>
       </c>
       <c r="J13">
-        <v>5.764457586742781</v>
+        <v>9.929307393299412</v>
       </c>
       <c r="K13">
-        <v>15.9243050581917</v>
+        <v>17.3337089564437</v>
       </c>
       <c r="L13">
-        <v>7.200695688513214</v>
+        <v>11.75537031116328</v>
       </c>
       <c r="M13">
-        <v>12.73644631354673</v>
+        <v>18.29264259120601</v>
       </c>
       <c r="N13">
-        <v>16.35128694076759</v>
+        <v>25.37444685918932</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.67067158377903</v>
+        <v>19.43921655890106</v>
       </c>
       <c r="C14">
-        <v>9.751067832534503</v>
+        <v>6.957770348093844</v>
       </c>
       <c r="D14">
-        <v>2.27170304655961</v>
+        <v>4.382010186216382</v>
       </c>
       <c r="E14">
-        <v>5.821238799327594</v>
+        <v>10.37687579486647</v>
       </c>
       <c r="F14">
-        <v>38.88741416456389</v>
+        <v>51.61756534168403</v>
       </c>
       <c r="I14">
-        <v>26.03815724587879</v>
+        <v>37.17349029455583</v>
       </c>
       <c r="J14">
-        <v>5.771023352707355</v>
+        <v>9.93140885121468</v>
       </c>
       <c r="K14">
-        <v>15.80781221763202</v>
+        <v>17.31431337225074</v>
       </c>
       <c r="L14">
-        <v>7.186467060673901</v>
+        <v>11.75689512439092</v>
       </c>
       <c r="M14">
-        <v>12.67934614851556</v>
+        <v>18.2896467103374</v>
       </c>
       <c r="N14">
-        <v>16.38420649914011</v>
+        <v>25.38360807465348</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.5815267395587</v>
+        <v>19.42268898381581</v>
       </c>
       <c r="C15">
-        <v>9.692921015642407</v>
+        <v>6.94076137644838</v>
       </c>
       <c r="D15">
-        <v>2.264671990766171</v>
+        <v>4.381778827027072</v>
       </c>
       <c r="E15">
-        <v>5.821524301890581</v>
+        <v>10.37814178586181</v>
       </c>
       <c r="F15">
-        <v>38.8124668791073</v>
+        <v>51.61466505642222</v>
       </c>
       <c r="I15">
-        <v>26.01417875284486</v>
+        <v>37.17644414619391</v>
       </c>
       <c r="J15">
-        <v>5.775055456511208</v>
+        <v>9.932703860200629</v>
       </c>
       <c r="K15">
-        <v>15.73626210526034</v>
+        <v>17.30249165099562</v>
       </c>
       <c r="L15">
-        <v>7.177808330374886</v>
+        <v>11.75785569495311</v>
       </c>
       <c r="M15">
-        <v>12.64439947249717</v>
+        <v>18.28786548380919</v>
       </c>
       <c r="N15">
-        <v>16.40445945869092</v>
+        <v>25.38925679461297</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.06611016855152</v>
+        <v>19.32894162471204</v>
       </c>
       <c r="C16">
-        <v>9.35514487391208</v>
+        <v>6.843017979628846</v>
       </c>
       <c r="D16">
-        <v>2.224244053623081</v>
+        <v>4.380563995418543</v>
       </c>
       <c r="E16">
-        <v>5.823565364908712</v>
+        <v>10.38558542765721</v>
       </c>
       <c r="F16">
-        <v>38.38996911791918</v>
+        <v>51.6006501458525</v>
       </c>
       <c r="I16">
-        <v>25.88218363277318</v>
+        <v>37.1949789952094</v>
       </c>
       <c r="J16">
-        <v>5.798324716152658</v>
+        <v>9.940244878922043</v>
       </c>
       <c r="K16">
-        <v>15.32329222734244</v>
+        <v>17.23565860850132</v>
       </c>
       <c r="L16">
-        <v>7.129053995446294</v>
+        <v>11.76376814415633</v>
       </c>
       <c r="M16">
-        <v>12.44460484538799</v>
+        <v>18.27848531293008</v>
       </c>
       <c r="N16">
-        <v>16.52186670927013</v>
+        <v>25.42219807323722</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.74590043790955</v>
+        <v>19.2723149722561</v>
       </c>
       <c r="C17">
-        <v>9.143808791914559</v>
+        <v>6.782847173293603</v>
       </c>
       <c r="D17">
-        <v>2.199325329778065</v>
+        <v>4.379918201729717</v>
       </c>
       <c r="E17">
-        <v>5.82517460215737</v>
+        <v>10.39032060297966</v>
       </c>
       <c r="F17">
-        <v>38.13696359527532</v>
+        <v>51.59437995950237</v>
       </c>
       <c r="I17">
-        <v>25.80593973581631</v>
+        <v>37.20778390987623</v>
       </c>
       <c r="J17">
-        <v>5.812749008417081</v>
+        <v>9.94497822049469</v>
       </c>
       <c r="K17">
-        <v>15.06737284499898</v>
+        <v>17.19548765523191</v>
       </c>
       <c r="L17">
-        <v>7.09991280087749</v>
+        <v>11.7677595947122</v>
       </c>
       <c r="M17">
-        <v>12.32249052264548</v>
+        <v>18.27347137202448</v>
       </c>
       <c r="N17">
-        <v>16.59507786213112</v>
+        <v>25.44291621532018</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.56027221552044</v>
+        <v>19.24007873427315</v>
       </c>
       <c r="C18">
-        <v>9.020719232861499</v>
+        <v>6.748175762728876</v>
       </c>
       <c r="D18">
-        <v>2.184951269641005</v>
+        <v>4.379583478270243</v>
       </c>
       <c r="E18">
-        <v>5.826229804010021</v>
+        <v>10.39310628544836</v>
       </c>
       <c r="F18">
-        <v>37.9936911242886</v>
+        <v>51.59162981060164</v>
       </c>
       <c r="I18">
-        <v>25.76378481774649</v>
+        <v>37.2156760518131</v>
       </c>
       <c r="J18">
-        <v>5.821101910593342</v>
+        <v>9.947740189851578</v>
       </c>
       <c r="K18">
-        <v>14.91925173716442</v>
+        <v>17.17269277518716</v>
       </c>
       <c r="L18">
-        <v>7.083432192523592</v>
+        <v>11.77018944882185</v>
       </c>
       <c r="M18">
-        <v>12.25243406686684</v>
+        <v>18.2708604790353</v>
       </c>
       <c r="N18">
-        <v>16.63761709467198</v>
+        <v>25.45502024692745</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49717496116284</v>
+        <v>19.22922228505552</v>
       </c>
       <c r="C19">
-        <v>8.978777804294777</v>
+        <v>6.736427178039574</v>
       </c>
       <c r="D19">
-        <v>2.180077522468266</v>
+        <v>4.379476468981391</v>
       </c>
       <c r="E19">
-        <v>5.826609188868213</v>
+        <v>10.39406015303702</v>
       </c>
       <c r="F19">
-        <v>37.94556578312158</v>
+        <v>51.59084580845475</v>
       </c>
       <c r="I19">
-        <v>25.74979985298823</v>
+        <v>37.21843871854606</v>
       </c>
       <c r="J19">
-        <v>5.823939894569008</v>
+        <v>9.948682134051989</v>
       </c>
       <c r="K19">
-        <v>14.86894444009074</v>
+        <v>17.16502866665992</v>
       </c>
       <c r="L19">
-        <v>7.077900191858137</v>
+        <v>11.77103520010492</v>
       </c>
       <c r="M19">
-        <v>12.22874653689269</v>
+        <v>18.27002344168431</v>
       </c>
       <c r="N19">
-        <v>16.65209352845169</v>
+        <v>25.45915068526267</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.78013820501496</v>
+        <v>19.27830861675755</v>
       </c>
       <c r="C20">
-        <v>9.166464265483752</v>
+        <v>6.789259269502275</v>
       </c>
       <c r="D20">
-        <v>2.201982304935982</v>
+        <v>4.379983150928014</v>
       </c>
       <c r="E20">
-        <v>5.824989846073549</v>
+        <v>10.38981010753267</v>
       </c>
       <c r="F20">
-        <v>38.16366313361571</v>
+        <v>51.59495882784305</v>
       </c>
       <c r="I20">
-        <v>25.81387933855274</v>
+        <v>37.2063662513323</v>
       </c>
       <c r="J20">
-        <v>5.811207711675323</v>
+        <v>9.944470264604417</v>
       </c>
       <c r="K20">
-        <v>15.09471200913245</v>
+        <v>17.19973192570809</v>
       </c>
       <c r="L20">
-        <v>7.102985850384778</v>
+        <v>11.7673208254383</v>
       </c>
       <c r="M20">
-        <v>12.33547144798324</v>
+        <v>18.27397687984118</v>
       </c>
       <c r="N20">
-        <v>16.58723977551814</v>
+        <v>25.44069133176791</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.71333757870891</v>
+        <v>19.44715873553945</v>
       </c>
       <c r="C21">
-        <v>9.778870898086272</v>
+        <v>6.965921331083479</v>
       </c>
       <c r="D21">
-        <v>2.275072182657043</v>
+        <v>4.38212308663286</v>
       </c>
       <c r="E21">
-        <v>5.821109118124382</v>
+        <v>10.37627205245185</v>
       </c>
       <c r="F21">
-        <v>38.92347799949351</v>
+        <v>51.61900215618122</v>
       </c>
       <c r="I21">
-        <v>26.04975283541197</v>
+        <v>37.17210227796039</v>
       </c>
       <c r="J21">
-        <v>5.769092673528424</v>
+        <v>9.93078997596486</v>
       </c>
       <c r="K21">
-        <v>15.84206969404116</v>
+        <v>17.31999813940717</v>
       </c>
       <c r="L21">
-        <v>7.190634524570968</v>
+        <v>11.7564417119112</v>
       </c>
       <c r="M21">
-        <v>12.6961119107688</v>
+        <v>18.29051545880896</v>
       </c>
       <c r="N21">
-        <v>16.37451868783081</v>
+        <v>25.38090944982922</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.30984865709652</v>
+        <v>19.5602938093406</v>
       </c>
       <c r="C22">
-        <v>10.16588704053965</v>
+        <v>7.080533147663052</v>
       </c>
       <c r="D22">
-        <v>2.322440054277599</v>
+        <v>4.383845078157281</v>
       </c>
       <c r="E22">
-        <v>5.819762716684064</v>
+        <v>10.36797485325254</v>
       </c>
       <c r="F22">
-        <v>39.44058662938789</v>
+        <v>51.64231919971518</v>
       </c>
       <c r="I22">
-        <v>26.21989340093874</v>
+        <v>37.15440282571172</v>
       </c>
       <c r="J22">
-        <v>5.742036969740188</v>
+        <v>9.922198710643139</v>
       </c>
       <c r="K22">
-        <v>16.3218470794653</v>
+        <v>17.40123903334476</v>
       </c>
       <c r="L22">
-        <v>7.250452093170626</v>
+        <v>11.75052165636787</v>
       </c>
       <c r="M22">
-        <v>12.93313777093502</v>
+        <v>18.3037363718911</v>
       </c>
       <c r="N22">
-        <v>16.2394510600241</v>
+        <v>25.34350448604333</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.99272138362043</v>
+        <v>19.49966639350912</v>
       </c>
       <c r="C23">
-        <v>9.960517192487611</v>
+        <v>7.019453654845735</v>
       </c>
       <c r="D23">
-        <v>2.297196682280264</v>
+        <v>4.38289660107827</v>
       </c>
       <c r="E23">
-        <v>5.820370614779563</v>
+        <v>10.37235296083552</v>
       </c>
       <c r="F23">
-        <v>39.16269295279358</v>
+        <v>51.62917995548272</v>
       </c>
       <c r="I23">
-        <v>26.12758141499025</v>
+        <v>37.1634198756331</v>
       </c>
       <c r="J23">
-        <v>5.756435898716357</v>
+        <v>9.926752136152684</v>
       </c>
       <c r="K23">
-        <v>16.06659063616767</v>
+        <v>17.35764382910235</v>
       </c>
       <c r="L23">
-        <v>7.218292672145971</v>
+        <v>11.7535726035488</v>
       </c>
       <c r="M23">
-        <v>12.80652353678407</v>
+        <v>18.29646039071251</v>
       </c>
       <c r="N23">
-        <v>16.31117009277209</v>
+        <v>25.36331596268069</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.76466408707675</v>
+        <v>19.27559789372856</v>
       </c>
       <c r="C24">
-        <v>9.156226681950063</v>
+        <v>6.786360601774116</v>
       </c>
       <c r="D24">
-        <v>2.200781235428884</v>
+        <v>4.379953673521002</v>
       </c>
       <c r="E24">
-        <v>5.825072969667449</v>
+        <v>10.39004070512438</v>
       </c>
       <c r="F24">
-        <v>38.15158547569239</v>
+        <v>51.59469445890848</v>
       </c>
       <c r="I24">
-        <v>25.81028462476493</v>
+        <v>37.20700552243982</v>
       </c>
       <c r="J24">
-        <v>5.811904344107645</v>
+        <v>9.944699784636624</v>
       </c>
       <c r="K24">
-        <v>15.08235505001539</v>
+        <v>17.19781215536948</v>
       </c>
       <c r="L24">
-        <v>7.101595674581443</v>
+        <v>11.76751877210998</v>
       </c>
       <c r="M24">
-        <v>12.32960230519987</v>
+        <v>18.27374749325321</v>
       </c>
       <c r="N24">
-        <v>16.59078197674361</v>
+        <v>25.44169660066263</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.38503960391184</v>
+        <v>19.04677360148718</v>
       </c>
       <c r="C25">
-        <v>8.229783193500195</v>
+        <v>6.532724494468975</v>
       </c>
       <c r="D25">
-        <v>2.095233813580902</v>
+        <v>4.378185079582371</v>
       </c>
       <c r="E25">
-        <v>5.835083478035945</v>
+        <v>10.41149692908399</v>
       </c>
       <c r="F25">
-        <v>37.14667583424785</v>
+        <v>51.59023916507387</v>
       </c>
       <c r="I25">
-        <v>25.53248279835683</v>
+        <v>37.27416923844825</v>
       </c>
       <c r="J25">
-        <v>5.873910614000186</v>
+        <v>9.96556971233607</v>
       </c>
       <c r="K25">
-        <v>13.98589990416598</v>
+        <v>17.03733942315086</v>
       </c>
       <c r="L25">
-        <v>6.986429040607743</v>
+        <v>11.78768994376026</v>
       </c>
       <c r="M25">
-        <v>11.82228478171153</v>
+        <v>18.25969360619342</v>
       </c>
       <c r="N25">
-        <v>16.90879011754149</v>
+        <v>25.53341405326477</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.89028610029899</v>
+        <v>15.32601181885289</v>
       </c>
       <c r="C2">
-        <v>6.345714281256412</v>
+        <v>7.494798080595714</v>
       </c>
       <c r="D2">
-        <v>4.378109198514563</v>
+        <v>2.016457401668282</v>
       </c>
       <c r="E2">
-        <v>10.42935597800257</v>
+        <v>5.846531899418656</v>
       </c>
       <c r="F2">
-        <v>51.61517047106191</v>
+        <v>36.47768740746928</v>
       </c>
       <c r="I2">
-        <v>37.34093666912185</v>
+        <v>25.37879626966215</v>
       </c>
       <c r="J2">
-        <v>9.982248629945566</v>
+        <v>5.921609186548711</v>
       </c>
       <c r="K2">
-        <v>16.93002746922933</v>
+        <v>13.15234493898958</v>
       </c>
       <c r="L2">
-        <v>11.80697136171489</v>
+        <v>6.910634731028879</v>
       </c>
       <c r="M2">
-        <v>18.25840781137189</v>
+        <v>11.45660717750069</v>
       </c>
       <c r="N2">
-        <v>25.60714598775348</v>
+        <v>17.15658937652178</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.79215134195095</v>
+        <v>14.58445236598802</v>
       </c>
       <c r="C3">
-        <v>6.219701808648485</v>
+        <v>6.983031541482353</v>
       </c>
       <c r="D3">
-        <v>4.378831251613356</v>
+        <v>1.962600194155</v>
       </c>
       <c r="E3">
-        <v>10.44275322461251</v>
+        <v>5.856759027075304</v>
       </c>
       <c r="F3">
-        <v>51.64967152508014</v>
+        <v>36.06706732142074</v>
       </c>
       <c r="I3">
-        <v>37.39697471182244</v>
+        <v>25.30410439286779</v>
       </c>
       <c r="J3">
-        <v>9.994377578097199</v>
+        <v>5.95528955729482</v>
       </c>
       <c r="K3">
-        <v>16.86433294254153</v>
+        <v>12.57376094379853</v>
       </c>
       <c r="L3">
-        <v>11.82281063360845</v>
+        <v>6.864775308091096</v>
       </c>
       <c r="M3">
-        <v>18.26322245136708</v>
+        <v>11.21468864199339</v>
       </c>
       <c r="N3">
-        <v>25.66099979129036</v>
+        <v>17.33288428422423</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.73593723290201</v>
+        <v>14.11877072326253</v>
       </c>
       <c r="C4">
-        <v>6.142998056084868</v>
+        <v>6.683909527894927</v>
       </c>
       <c r="D4">
-        <v>4.379658938110849</v>
+        <v>1.929380144655023</v>
       </c>
       <c r="E4">
-        <v>10.45162027778671</v>
+        <v>5.864233513176422</v>
       </c>
       <c r="F4">
-        <v>51.6795364086974</v>
+        <v>35.83549896800867</v>
       </c>
       <c r="I4">
-        <v>37.43669907214367</v>
+        <v>25.27203199082352</v>
       </c>
       <c r="J4">
-        <v>10.00223420293594</v>
+        <v>5.976662159995841</v>
       </c>
       <c r="K4">
-        <v>16.82754616970398</v>
+        <v>12.21292971599428</v>
       </c>
       <c r="L4">
-        <v>11.83390621630215</v>
+        <v>6.839294960535282</v>
       </c>
       <c r="M4">
-        <v>18.26899284731092</v>
+        <v>11.06942122115046</v>
       </c>
       <c r="N4">
-        <v>25.69598810386558</v>
+        <v>17.44521684167064</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.71406519095684</v>
+        <v>13.9266508581722</v>
       </c>
       <c r="C5">
-        <v>6.111956571874066</v>
+        <v>6.559324391827931</v>
       </c>
       <c r="D5">
-        <v>4.380093312407942</v>
+        <v>1.915818308307176</v>
       </c>
       <c r="E5">
-        <v>10.45539529493552</v>
+        <v>5.867576804225116</v>
       </c>
       <c r="F5">
-        <v>51.69388899746361</v>
+        <v>35.74621680474105</v>
       </c>
       <c r="I5">
-        <v>37.45422327083317</v>
+        <v>25.26232009304879</v>
       </c>
       <c r="J5">
-        <v>10.00553910023722</v>
+        <v>5.985549261955074</v>
       </c>
       <c r="K5">
-        <v>16.81345958079615</v>
+        <v>12.06469193920743</v>
       </c>
       <c r="L5">
-        <v>11.83877274431724</v>
+        <v>6.829578827084938</v>
       </c>
       <c r="M5">
-        <v>18.27205337791758</v>
+        <v>11.01110206572775</v>
       </c>
       <c r="N5">
-        <v>25.71073014396528</v>
+        <v>17.49201649223072</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.71049644733685</v>
+        <v>13.89461575940084</v>
       </c>
       <c r="C6">
-        <v>6.10681660216491</v>
+        <v>6.53847733811932</v>
       </c>
       <c r="D6">
-        <v>4.380171316279412</v>
+        <v>1.913565326439842</v>
       </c>
       <c r="E6">
-        <v>10.45603190733874</v>
+        <v>5.868149828457917</v>
       </c>
       <c r="F6">
-        <v>51.69640401798823</v>
+        <v>35.73169598115707</v>
       </c>
       <c r="I6">
-        <v>37.45721382894713</v>
+        <v>25.26090705267766</v>
       </c>
       <c r="J6">
-        <v>10.00609412166712</v>
+        <v>5.987035781459944</v>
       </c>
       <c r="K6">
-        <v>16.81117545139081</v>
+        <v>12.0400115037808</v>
       </c>
       <c r="L6">
-        <v>11.83960167633509</v>
+        <v>6.82800558771021</v>
       </c>
       <c r="M6">
-        <v>18.27260443792631</v>
+        <v>11.00147289873321</v>
       </c>
       <c r="N6">
-        <v>25.71320730430465</v>
+        <v>17.49984923297476</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73563804088604</v>
+        <v>14.11618887948113</v>
       </c>
       <c r="C7">
-        <v>6.142578482079656</v>
+        <v>6.682240104217938</v>
       </c>
       <c r="D7">
-        <v>4.379664402555576</v>
+        <v>1.929197324758749</v>
       </c>
       <c r="E7">
-        <v>10.45167053403384</v>
+        <v>5.864277401871597</v>
       </c>
       <c r="F7">
-        <v>51.67972113749503</v>
+        <v>35.83427441122863</v>
       </c>
       <c r="I7">
-        <v>37.43693000055298</v>
+        <v>25.27188756122299</v>
       </c>
       <c r="J7">
-        <v>10.00227835543138</v>
+        <v>5.976781291091063</v>
       </c>
       <c r="K7">
-        <v>16.82735251690924</v>
+        <v>12.21093507924048</v>
       </c>
       <c r="L7">
-        <v>11.83397045059701</v>
+        <v>6.839161231768369</v>
       </c>
       <c r="M7">
-        <v>18.26903125011813</v>
+        <v>11.06863107801514</v>
       </c>
       <c r="N7">
-        <v>25.69618495942849</v>
+        <v>17.44584386003715</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.85562267614499</v>
+        <v>15.07261274361744</v>
       </c>
       <c r="C8">
-        <v>6.302155016003737</v>
+        <v>7.314858302300935</v>
       </c>
       <c r="D8">
-        <v>4.3782786579512</v>
+        <v>1.997926697145882</v>
       </c>
       <c r="E8">
-        <v>10.43384253889257</v>
+        <v>5.849808260389175</v>
       </c>
       <c r="F8">
-        <v>51.62526453038361</v>
+        <v>36.33179103279633</v>
       </c>
       <c r="I8">
-        <v>37.35915468090557</v>
+        <v>25.35011471101539</v>
       </c>
       <c r="J8">
-        <v>9.986345907708863</v>
+        <v>5.933080502247363</v>
       </c>
       <c r="K8">
-        <v>16.90664652862556</v>
+        <v>12.954122276996</v>
       </c>
       <c r="L8">
-        <v>11.81214862646519</v>
+        <v>6.89426325946198</v>
       </c>
       <c r="M8">
-        <v>18.25948471358965</v>
+        <v>11.37254811131534</v>
       </c>
       <c r="N8">
-        <v>25.625316349617</v>
+        <v>17.21652460138515</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.12205066372569</v>
+        <v>16.85681451347389</v>
       </c>
       <c r="C9">
-        <v>6.618316540046903</v>
+        <v>8.549927820350934</v>
       </c>
       <c r="D9">
-        <v>4.378591483282851</v>
+        <v>2.130974335858088</v>
       </c>
       <c r="E9">
-        <v>10.40395032879017</v>
+        <v>5.831067325988004</v>
       </c>
       <c r="F9">
-        <v>51.58735985544781</v>
+        <v>37.47397581733044</v>
       </c>
       <c r="I9">
-        <v>37.24885406759996</v>
+        <v>25.61785760101427</v>
       </c>
       <c r="J9">
-        <v>9.95833665697142</v>
+        <v>5.852717341888162</v>
       </c>
       <c r="K9">
-        <v>17.08974813503568</v>
+        <v>14.35961474739365</v>
       </c>
       <c r="L9">
-        <v>11.7802084241278</v>
+        <v>7.023810817427815</v>
       </c>
       <c r="M9">
-        <v>18.26302487900172</v>
+        <v>11.9920805287154</v>
       </c>
       <c r="N9">
-        <v>25.50155787286496</v>
+        <v>16.79952239795137</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.33544772260212</v>
+        <v>18.10244967490389</v>
       </c>
       <c r="C10">
-        <v>6.849874373355015</v>
+        <v>9.379053276502553</v>
       </c>
       <c r="D10">
-        <v>4.38064264863013</v>
+        <v>2.227081702663885</v>
       </c>
       <c r="E10">
-        <v>10.38505352178071</v>
+        <v>5.823399418530763</v>
       </c>
       <c r="F10">
-        <v>51.60148158303814</v>
+        <v>38.41914526807202</v>
       </c>
       <c r="I10">
-        <v>37.19358929175828</v>
+        <v>25.89111663851749</v>
       </c>
       <c r="J10">
-        <v>9.939710114260828</v>
+        <v>5.796686340010453</v>
       </c>
       <c r="K10">
-        <v>17.24028403889915</v>
+        <v>15.35236754090903</v>
       </c>
       <c r="L10">
-        <v>11.76333084699548</v>
+        <v>7.132417350746277</v>
       </c>
       <c r="M10">
-        <v>18.27909436816181</v>
+        <v>12.45856236310793</v>
       </c>
       <c r="N10">
-        <v>25.41985938350758</v>
+        <v>16.51357148100042</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.43605230865415</v>
+        <v>18.6536421523597</v>
       </c>
       <c r="C11">
-        <v>6.954518858086117</v>
+        <v>9.739965879062165</v>
       </c>
       <c r="D11">
-        <v>4.381965514924827</v>
+        <v>2.27035902785065</v>
       </c>
       <c r="E11">
-        <v>10.37711716149373</v>
+        <v>5.821291816815713</v>
       </c>
       <c r="F11">
-        <v>51.6170006435634</v>
+        <v>38.87305471380424</v>
       </c>
       <c r="I11">
-        <v>37.17404894063046</v>
+        <v>26.03355057798854</v>
       </c>
       <c r="J11">
-        <v>9.931656033431727</v>
+        <v>5.771793795371185</v>
       </c>
       <c r="K11">
-        <v>17.31204920798094</v>
+        <v>15.79414117335166</v>
       </c>
       <c r="L11">
-        <v>11.75707723805228</v>
+        <v>7.184807885753059</v>
       </c>
       <c r="M11">
-        <v>18.2893028902166</v>
+        <v>12.672661541608</v>
       </c>
       <c r="N11">
-        <v>25.38468607534722</v>
+        <v>16.38807423199543</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.47462864632365</v>
+        <v>18.86007226392335</v>
       </c>
       <c r="C12">
-        <v>6.994003238533271</v>
+        <v>9.874360681073339</v>
       </c>
       <c r="D12">
-        <v>4.382521985479924</v>
+        <v>2.286678624488077</v>
       </c>
       <c r="E12">
-        <v>10.37420634434596</v>
+        <v>5.820697382183136</v>
       </c>
       <c r="F12">
-        <v>51.62418216077639</v>
+        <v>39.04845544777702</v>
       </c>
       <c r="I12">
-        <v>37.16745477362657</v>
+        <v>26.09021900583215</v>
       </c>
       <c r="J12">
-        <v>9.928666127576401</v>
+        <v>5.762448405906059</v>
       </c>
       <c r="K12">
-        <v>17.33967956459631</v>
+        <v>15.95994758956939</v>
       </c>
       <c r="L12">
-        <v>11.75491335339765</v>
+        <v>7.205081340063576</v>
       </c>
       <c r="M12">
-        <v>18.29358269226977</v>
+        <v>12.7539663992837</v>
       </c>
       <c r="N12">
-        <v>25.37165256438008</v>
+        <v>16.34122826595355</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.46629966647525</v>
+        <v>18.81571675441122</v>
       </c>
       <c r="C13">
-        <v>6.985506550202258</v>
+        <v>9.84551647065841</v>
       </c>
       <c r="D13">
-        <v>4.382399678309422</v>
+        <v>2.283167014762096</v>
       </c>
       <c r="E13">
-        <v>10.37482904358711</v>
+        <v>5.820816259050025</v>
       </c>
       <c r="F13">
-        <v>51.62257751862543</v>
+        <v>39.01052223881896</v>
       </c>
       <c r="I13">
-        <v>37.16883912852326</v>
+        <v>26.07789092032374</v>
       </c>
       <c r="J13">
-        <v>9.929307393299412</v>
+        <v>5.764457586742879</v>
       </c>
       <c r="K13">
-        <v>17.3337089564437</v>
+        <v>15.92430505819169</v>
       </c>
       <c r="L13">
-        <v>11.75537031116328</v>
+        <v>7.200695688513266</v>
       </c>
       <c r="M13">
-        <v>18.29264259120601</v>
+        <v>12.73644631354676</v>
       </c>
       <c r="N13">
-        <v>25.37444685918932</v>
+        <v>16.35128694076762</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.43921655890106</v>
+        <v>18.67067158377907</v>
       </c>
       <c r="C14">
-        <v>6.957770348093844</v>
+        <v>9.751067832534591</v>
       </c>
       <c r="D14">
-        <v>4.382010186216382</v>
+        <v>2.271703046559707</v>
       </c>
       <c r="E14">
-        <v>10.37687579486647</v>
+        <v>5.821238799327773</v>
       </c>
       <c r="F14">
-        <v>51.61756534168403</v>
+        <v>38.88741416456414</v>
       </c>
       <c r="I14">
-        <v>37.17349029455583</v>
+        <v>26.0381572458791</v>
       </c>
       <c r="J14">
-        <v>9.93140885121468</v>
+        <v>5.771023352707519</v>
       </c>
       <c r="K14">
-        <v>17.31431337225074</v>
+        <v>15.80781221763204</v>
       </c>
       <c r="L14">
-        <v>11.75689512439092</v>
+        <v>7.186467060674014</v>
       </c>
       <c r="M14">
-        <v>18.2896467103374</v>
+        <v>12.67934614851566</v>
       </c>
       <c r="N14">
-        <v>25.38360807465348</v>
+        <v>16.38420649914026</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.42268898381581</v>
+        <v>18.58152673955872</v>
       </c>
       <c r="C15">
-        <v>6.94076137644838</v>
+        <v>9.692921015642346</v>
       </c>
       <c r="D15">
-        <v>4.381778827027072</v>
+        <v>2.264671990766164</v>
       </c>
       <c r="E15">
-        <v>10.37814178586181</v>
+        <v>5.8215243018904</v>
       </c>
       <c r="F15">
-        <v>51.61466505642222</v>
+        <v>38.81246687910731</v>
       </c>
       <c r="I15">
-        <v>37.17644414619391</v>
+        <v>26.01417875284485</v>
       </c>
       <c r="J15">
-        <v>9.932703860200629</v>
+        <v>5.775055456511144</v>
       </c>
       <c r="K15">
-        <v>17.30249165099562</v>
+        <v>15.73626210526036</v>
       </c>
       <c r="L15">
-        <v>11.75785569495311</v>
+        <v>7.17780833037475</v>
       </c>
       <c r="M15">
-        <v>18.28786548380919</v>
+        <v>12.64439947249713</v>
       </c>
       <c r="N15">
-        <v>25.38925679461297</v>
+        <v>16.40445945869089</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.32894162471204</v>
+        <v>18.06611016855157</v>
       </c>
       <c r="C16">
-        <v>6.843017979628846</v>
+        <v>9.355144873912227</v>
       </c>
       <c r="D16">
-        <v>4.380563995418543</v>
+        <v>2.224244053623174</v>
       </c>
       <c r="E16">
-        <v>10.38558542765721</v>
+        <v>5.823565364908835</v>
       </c>
       <c r="F16">
-        <v>51.6006501458525</v>
+        <v>38.38996911791933</v>
       </c>
       <c r="I16">
-        <v>37.1949789952094</v>
+        <v>25.88218363277333</v>
       </c>
       <c r="J16">
-        <v>9.940244878922043</v>
+        <v>5.798324716152726</v>
       </c>
       <c r="K16">
-        <v>17.23565860850132</v>
+        <v>15.32329222734245</v>
       </c>
       <c r="L16">
-        <v>11.76376814415633</v>
+        <v>7.129053995446299</v>
       </c>
       <c r="M16">
-        <v>18.27848531293008</v>
+        <v>12.44460484538802</v>
       </c>
       <c r="N16">
-        <v>25.42219807323722</v>
+        <v>16.52186670927017</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.2723149722561</v>
+        <v>17.74590043790953</v>
       </c>
       <c r="C17">
-        <v>6.782847173293603</v>
+        <v>9.143808791914632</v>
       </c>
       <c r="D17">
-        <v>4.379918201729717</v>
+        <v>2.199325329777924</v>
       </c>
       <c r="E17">
-        <v>10.39032060297966</v>
+        <v>5.825174602157303</v>
       </c>
       <c r="F17">
-        <v>51.59437995950237</v>
+        <v>38.13696359527508</v>
       </c>
       <c r="I17">
-        <v>37.20778390987623</v>
+        <v>25.80593973581619</v>
       </c>
       <c r="J17">
-        <v>9.94497822049469</v>
+        <v>5.812749008417149</v>
       </c>
       <c r="K17">
-        <v>17.19548765523191</v>
+        <v>15.06737284499898</v>
       </c>
       <c r="L17">
-        <v>11.7677595947122</v>
+        <v>7.099912800877417</v>
       </c>
       <c r="M17">
-        <v>18.27347137202448</v>
+        <v>12.32249052264544</v>
       </c>
       <c r="N17">
-        <v>25.44291621532018</v>
+        <v>16.59507786213104</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.24007873427315</v>
+        <v>17.56027221552043</v>
       </c>
       <c r="C18">
-        <v>6.748175762728876</v>
+        <v>9.02071923286144</v>
       </c>
       <c r="D18">
-        <v>4.379583478270243</v>
+        <v>2.184951269640846</v>
       </c>
       <c r="E18">
-        <v>10.39310628544836</v>
+        <v>5.8262298040099</v>
       </c>
       <c r="F18">
-        <v>51.59162981060164</v>
+        <v>37.99369112428845</v>
       </c>
       <c r="I18">
-        <v>37.2156760518131</v>
+        <v>25.76378481774637</v>
       </c>
       <c r="J18">
-        <v>9.947740189851578</v>
+        <v>5.821101910593309</v>
       </c>
       <c r="K18">
-        <v>17.17269277518716</v>
+        <v>14.91925173716442</v>
       </c>
       <c r="L18">
-        <v>11.77018944882185</v>
+        <v>7.08343219252356</v>
       </c>
       <c r="M18">
-        <v>18.2708604790353</v>
+        <v>12.2524340668668</v>
       </c>
       <c r="N18">
-        <v>25.45502024692745</v>
+        <v>16.6376170946719</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.22922228505552</v>
+        <v>17.49717496116281</v>
       </c>
       <c r="C19">
-        <v>6.736427178039574</v>
+        <v>8.978777804294554</v>
       </c>
       <c r="D19">
-        <v>4.379476468981391</v>
+        <v>2.180077522468196</v>
       </c>
       <c r="E19">
-        <v>10.39406015303702</v>
+        <v>5.826609188868156</v>
       </c>
       <c r="F19">
-        <v>51.59084580845475</v>
+        <v>37.94556578312122</v>
       </c>
       <c r="I19">
-        <v>37.21843871854606</v>
+        <v>25.74979985298793</v>
       </c>
       <c r="J19">
-        <v>9.948682134051989</v>
+        <v>5.823939894569011</v>
       </c>
       <c r="K19">
-        <v>17.16502866665992</v>
+        <v>14.86894444009071</v>
       </c>
       <c r="L19">
-        <v>11.77103520010492</v>
+        <v>7.077900191858177</v>
       </c>
       <c r="M19">
-        <v>18.27002344168431</v>
+        <v>12.22874653689263</v>
       </c>
       <c r="N19">
-        <v>25.45915068526267</v>
+        <v>16.65209352845157</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.27830861675755</v>
+        <v>17.78013820501496</v>
       </c>
       <c r="C20">
-        <v>6.789259269502275</v>
+        <v>9.166464265483832</v>
       </c>
       <c r="D20">
-        <v>4.379983150928014</v>
+        <v>2.20198230493593</v>
       </c>
       <c r="E20">
-        <v>10.38981010753267</v>
+        <v>5.824989846073547</v>
       </c>
       <c r="F20">
-        <v>51.59495882784305</v>
+        <v>38.16366313361585</v>
       </c>
       <c r="I20">
-        <v>37.2063662513323</v>
+        <v>25.81387933855286</v>
       </c>
       <c r="J20">
-        <v>9.944470264604417</v>
+        <v>5.811207711675357</v>
       </c>
       <c r="K20">
-        <v>17.19973192570809</v>
+        <v>15.09471200913246</v>
       </c>
       <c r="L20">
-        <v>11.7673208254383</v>
+        <v>7.102985850384703</v>
       </c>
       <c r="M20">
-        <v>18.27397687984118</v>
+        <v>12.33547144798324</v>
       </c>
       <c r="N20">
-        <v>25.44069133176791</v>
+        <v>16.58723977551824</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.44715873553945</v>
+        <v>18.71333757870894</v>
       </c>
       <c r="C21">
-        <v>6.965921331083479</v>
+        <v>9.778870898086396</v>
       </c>
       <c r="D21">
-        <v>4.38212308663286</v>
+        <v>2.27507218265711</v>
       </c>
       <c r="E21">
-        <v>10.37627205245185</v>
+        <v>5.821109118124494</v>
       </c>
       <c r="F21">
-        <v>51.61900215618122</v>
+        <v>38.92347799949366</v>
       </c>
       <c r="I21">
-        <v>37.17210227796039</v>
+        <v>26.04975283541216</v>
       </c>
       <c r="J21">
-        <v>9.93078997596486</v>
+        <v>5.76909267352849</v>
       </c>
       <c r="K21">
-        <v>17.31999813940717</v>
+        <v>15.84206969404117</v>
       </c>
       <c r="L21">
-        <v>11.7564417119112</v>
+        <v>7.190634524570945</v>
       </c>
       <c r="M21">
-        <v>18.29051545880896</v>
+        <v>12.69611191076884</v>
       </c>
       <c r="N21">
-        <v>25.38090944982922</v>
+        <v>16.37451868783084</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.5602938093406</v>
+        <v>19.30984865709651</v>
       </c>
       <c r="C22">
-        <v>7.080533147663052</v>
+        <v>10.16588704053973</v>
       </c>
       <c r="D22">
-        <v>4.383845078157281</v>
+        <v>2.322440054277534</v>
       </c>
       <c r="E22">
-        <v>10.36797485325254</v>
+        <v>5.819762716684123</v>
       </c>
       <c r="F22">
-        <v>51.64231919971518</v>
+        <v>39.44058662938764</v>
       </c>
       <c r="I22">
-        <v>37.15440282571172</v>
+        <v>26.21989340093857</v>
       </c>
       <c r="J22">
-        <v>9.922198710643139</v>
+        <v>5.742036969740259</v>
       </c>
       <c r="K22">
-        <v>17.40123903334476</v>
+        <v>16.3218470794653</v>
       </c>
       <c r="L22">
-        <v>11.75052165636787</v>
+        <v>7.250452093170598</v>
       </c>
       <c r="M22">
-        <v>18.3037363718911</v>
+        <v>12.93313777093499</v>
       </c>
       <c r="N22">
-        <v>25.34350448604333</v>
+        <v>16.23945106002393</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.49966639350912</v>
+        <v>18.99272138362044</v>
       </c>
       <c r="C23">
-        <v>7.019453654845735</v>
+        <v>9.960517192487648</v>
       </c>
       <c r="D23">
-        <v>4.38289660107827</v>
+        <v>2.297196682280259</v>
       </c>
       <c r="E23">
-        <v>10.37235296083552</v>
+        <v>5.820370614779502</v>
       </c>
       <c r="F23">
-        <v>51.62917995548272</v>
+        <v>39.16269295279358</v>
       </c>
       <c r="I23">
-        <v>37.1634198756331</v>
+        <v>26.12758141499026</v>
       </c>
       <c r="J23">
-        <v>9.926752136152684</v>
+        <v>5.756435898716294</v>
       </c>
       <c r="K23">
-        <v>17.35764382910235</v>
+        <v>16.06659063616767</v>
       </c>
       <c r="L23">
-        <v>11.7535726035488</v>
+        <v>7.218292672145926</v>
       </c>
       <c r="M23">
-        <v>18.29646039071251</v>
+        <v>12.80652353678404</v>
       </c>
       <c r="N23">
-        <v>25.36331596268069</v>
+        <v>16.31117009277213</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.27559789372856</v>
+        <v>17.76466408707676</v>
       </c>
       <c r="C24">
-        <v>6.786360601774116</v>
+        <v>9.156226681950038</v>
       </c>
       <c r="D24">
-        <v>4.379953673521002</v>
+        <v>2.200781235428803</v>
       </c>
       <c r="E24">
-        <v>10.39004070512438</v>
+        <v>5.825072969667515</v>
       </c>
       <c r="F24">
-        <v>51.59469445890848</v>
+        <v>38.15158547569241</v>
       </c>
       <c r="I24">
-        <v>37.20700552243982</v>
+        <v>25.81028462476499</v>
       </c>
       <c r="J24">
-        <v>9.944699784636624</v>
+        <v>5.81190434410771</v>
       </c>
       <c r="K24">
-        <v>17.19781215536948</v>
+        <v>15.08235505001539</v>
       </c>
       <c r="L24">
-        <v>11.76751877210998</v>
+        <v>7.101595674581415</v>
       </c>
       <c r="M24">
-        <v>18.27374749325321</v>
+        <v>12.32960230519988</v>
       </c>
       <c r="N24">
-        <v>25.44169660066263</v>
+        <v>16.59078197674363</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.04677360148718</v>
+        <v>16.38503960391178</v>
       </c>
       <c r="C25">
-        <v>6.532724494468975</v>
+        <v>8.229783193500213</v>
       </c>
       <c r="D25">
-        <v>4.378185079582371</v>
+        <v>2.095233813580951</v>
       </c>
       <c r="E25">
-        <v>10.41149692908399</v>
+        <v>5.835083478035886</v>
       </c>
       <c r="F25">
-        <v>51.59023916507387</v>
+        <v>37.14667583424747</v>
       </c>
       <c r="I25">
-        <v>37.27416923844825</v>
+        <v>25.53248279835652</v>
       </c>
       <c r="J25">
-        <v>9.96556971233607</v>
+        <v>5.873910614000119</v>
       </c>
       <c r="K25">
-        <v>17.03733942315086</v>
+        <v>13.98589990416594</v>
       </c>
       <c r="L25">
-        <v>11.78768994376026</v>
+        <v>6.986429040607748</v>
       </c>
       <c r="M25">
-        <v>18.25969360619342</v>
+        <v>11.82228478171144</v>
       </c>
       <c r="N25">
-        <v>25.53341405326477</v>
+        <v>16.9087901175413</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.32601181885289</v>
+        <v>18.0787820878199</v>
       </c>
       <c r="C2">
-        <v>7.494798080595714</v>
+        <v>14.41802340856973</v>
       </c>
       <c r="D2">
-        <v>2.016457401668282</v>
+        <v>4.188507589781035</v>
       </c>
       <c r="E2">
-        <v>5.846531899418656</v>
+        <v>14.7663198675644</v>
       </c>
       <c r="F2">
-        <v>36.47768740746928</v>
+        <v>19.22481769127064</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.279838060197834</v>
       </c>
       <c r="I2">
-        <v>25.37879626966215</v>
+        <v>3.320127072837725</v>
       </c>
       <c r="J2">
-        <v>5.921609186548711</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>13.15234493898958</v>
+        <v>12.77436496212363</v>
       </c>
       <c r="L2">
-        <v>6.910634731028879</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.45660717750069</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.15658937652178</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.93911271730731</v>
+      </c>
+      <c r="P2">
+        <v>11.88159831178948</v>
+      </c>
+      <c r="Q2">
+        <v>15.04668903945374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.58445236598802</v>
+        <v>16.91426229342608</v>
       </c>
       <c r="C3">
-        <v>6.983031541482353</v>
+        <v>13.59527248033263</v>
       </c>
       <c r="D3">
-        <v>1.962600194155</v>
+        <v>4.040993394813878</v>
       </c>
       <c r="E3">
-        <v>5.856759027075304</v>
+        <v>14.07614739522082</v>
       </c>
       <c r="F3">
-        <v>36.06706732142074</v>
+        <v>18.52016046431165</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.073831381220796</v>
       </c>
       <c r="I3">
-        <v>25.30410439286779</v>
+        <v>3.168096265776171</v>
       </c>
       <c r="J3">
-        <v>5.95528955729482</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>12.57376094379853</v>
+        <v>12.77683925569725</v>
       </c>
       <c r="L3">
-        <v>6.864775308091096</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.21468864199339</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.33288428422423</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.95969437349083</v>
+      </c>
+      <c r="P3">
+        <v>11.97977692998681</v>
+      </c>
+      <c r="Q3">
+        <v>14.69699493531311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.11877072326253</v>
+        <v>16.15399837721433</v>
       </c>
       <c r="C4">
-        <v>6.683909527894927</v>
+        <v>13.06684464427989</v>
       </c>
       <c r="D4">
-        <v>1.929380144655023</v>
+        <v>3.947244145818579</v>
       </c>
       <c r="E4">
-        <v>5.864233513176422</v>
+        <v>13.63377207912569</v>
       </c>
       <c r="F4">
-        <v>35.83549896800867</v>
+        <v>18.08280865626273</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.942784832007112</v>
       </c>
       <c r="I4">
-        <v>25.27203199082352</v>
+        <v>3.071961159665787</v>
       </c>
       <c r="J4">
-        <v>5.976662159995841</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>12.21292971599428</v>
+        <v>12.78304668475156</v>
       </c>
       <c r="L4">
-        <v>6.839294960535282</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.06942122115046</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17.44521684167064</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.3273218102634</v>
+      </c>
+      <c r="P4">
+        <v>12.04224672862577</v>
+      </c>
+      <c r="Q4">
+        <v>14.48459686774412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.9266508581722</v>
+        <v>15.82746450458886</v>
       </c>
       <c r="C5">
-        <v>6.559324391827931</v>
+        <v>12.85411653261815</v>
       </c>
       <c r="D5">
-        <v>1.915818308307176</v>
+        <v>3.909488115850161</v>
       </c>
       <c r="E5">
-        <v>5.867576804225116</v>
+        <v>13.44864206994099</v>
       </c>
       <c r="F5">
-        <v>35.74621680474105</v>
+        <v>17.89591397587519</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.888059915039169</v>
       </c>
       <c r="I5">
-        <v>25.26232009304879</v>
+        <v>3.032406123347874</v>
       </c>
       <c r="J5">
-        <v>5.985549261955074</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>12.06469193920743</v>
+        <v>12.78119053431688</v>
       </c>
       <c r="L5">
-        <v>6.829578827084938</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.01110206572775</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>17.49201649223072</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.06179062280223</v>
+      </c>
+      <c r="P5">
+        <v>12.06877868688813</v>
+      </c>
+      <c r="Q5">
+        <v>14.39262826754663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.89461575940084</v>
+        <v>15.76604579372837</v>
       </c>
       <c r="C6">
-        <v>6.53847733811932</v>
+        <v>12.82871119469285</v>
       </c>
       <c r="D6">
-        <v>1.913565326439842</v>
+        <v>3.904668421643617</v>
       </c>
       <c r="E6">
-        <v>5.868149828457917</v>
+        <v>13.41728827428083</v>
       </c>
       <c r="F6">
-        <v>35.73169598115707</v>
+        <v>17.8553495320812</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.878706865377766</v>
       </c>
       <c r="I6">
-        <v>25.26090705267766</v>
+        <v>3.026384629730179</v>
       </c>
       <c r="J6">
-        <v>5.987035781459944</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>12.0400115037808</v>
+        <v>12.77420352297779</v>
       </c>
       <c r="L6">
-        <v>6.82800558771021</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.00147289873321</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17.49984923297476</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.01704762881329</v>
+      </c>
+      <c r="P6">
+        <v>12.07387285104039</v>
+      </c>
+      <c r="Q6">
+        <v>14.36995953268469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.11618887948113</v>
+        <v>16.13227656856817</v>
       </c>
       <c r="C7">
-        <v>6.682240104217938</v>
+        <v>13.09147599365655</v>
       </c>
       <c r="D7">
-        <v>1.929197324758749</v>
+        <v>3.950789014590399</v>
       </c>
       <c r="E7">
-        <v>5.864277401871597</v>
+        <v>13.6303955267008</v>
       </c>
       <c r="F7">
-        <v>35.83427441122863</v>
+        <v>18.05471054089601</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.941526728009292</v>
       </c>
       <c r="I7">
-        <v>25.27188756122299</v>
+        <v>3.072737765047878</v>
       </c>
       <c r="J7">
-        <v>5.976781291091063</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>12.21093507924048</v>
+        <v>12.76459846526614</v>
       </c>
       <c r="L7">
-        <v>6.839161231768369</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.06863107801514</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17.44584386003715</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.32325575443677</v>
+      </c>
+      <c r="P7">
+        <v>12.04446334434795</v>
+      </c>
+      <c r="Q7">
+        <v>14.46318731713102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.07261274361744</v>
+        <v>17.66538404709339</v>
       </c>
       <c r="C8">
-        <v>7.314858302300935</v>
+        <v>14.17318386365652</v>
       </c>
       <c r="D8">
-        <v>1.997926697145882</v>
+        <v>4.143521470958921</v>
       </c>
       <c r="E8">
-        <v>5.849808260389175</v>
+        <v>14.53119972131351</v>
       </c>
       <c r="F8">
-        <v>36.33179103279633</v>
+        <v>18.95061481983711</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.209086302189784</v>
       </c>
       <c r="I8">
-        <v>25.35011471101539</v>
+        <v>3.26960957251706</v>
       </c>
       <c r="J8">
-        <v>5.933080502247363</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>12.954122276996</v>
+        <v>12.74991703789983</v>
       </c>
       <c r="L8">
-        <v>6.89426325946198</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.37254811131534</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.21652460138515</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.607261795663</v>
+      </c>
+      <c r="P8">
+        <v>11.91776657670148</v>
+      </c>
+      <c r="Q8">
+        <v>14.89975607495734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.85681451347389</v>
+        <v>20.34176742851665</v>
       </c>
       <c r="C9">
-        <v>8.549927820350934</v>
+        <v>16.06319827382447</v>
       </c>
       <c r="D9">
-        <v>2.130974335858088</v>
+        <v>4.488379050783012</v>
       </c>
       <c r="E9">
-        <v>5.831067325988004</v>
+        <v>16.14800281540137</v>
       </c>
       <c r="F9">
-        <v>37.47397581733044</v>
+        <v>20.70306696283432</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.699236799009753</v>
       </c>
       <c r="I9">
-        <v>25.61785760101427</v>
+        <v>3.632781654178487</v>
       </c>
       <c r="J9">
-        <v>5.852717341888162</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>14.35961474739365</v>
+        <v>12.79328221254809</v>
       </c>
       <c r="L9">
-        <v>7.023810817427815</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.9920805287154</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>16.79952239795137</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.87621030511499</v>
+      </c>
+      <c r="P9">
+        <v>11.68309623180178</v>
+      </c>
+      <c r="Q9">
+        <v>15.80532625684948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.10244967490389</v>
+        <v>22.08735116477183</v>
       </c>
       <c r="C10">
-        <v>9.379053276502553</v>
+        <v>17.32784524602279</v>
       </c>
       <c r="D10">
-        <v>2.227081702663885</v>
+        <v>4.745987679800801</v>
       </c>
       <c r="E10">
-        <v>5.823399418530763</v>
+        <v>16.74519355577927</v>
       </c>
       <c r="F10">
-        <v>38.41914526807202</v>
+        <v>21.83014397941835</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3.015321011997859</v>
       </c>
       <c r="I10">
-        <v>25.89111663851749</v>
+        <v>3.883586675748208</v>
       </c>
       <c r="J10">
-        <v>5.796686340010453</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>15.35236754090903</v>
+        <v>12.78253475906168</v>
       </c>
       <c r="L10">
-        <v>7.132417350746277</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.45856236310793</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>16.51357148100042</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.10191502267916</v>
+      </c>
+      <c r="P10">
+        <v>11.53914386150634</v>
+      </c>
+      <c r="Q10">
+        <v>16.37603712561926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.6536421523597</v>
+        <v>22.83385750633051</v>
       </c>
       <c r="C11">
-        <v>9.739965879062165</v>
+        <v>17.74619315256895</v>
       </c>
       <c r="D11">
-        <v>2.27035902785065</v>
+        <v>5.035475071457697</v>
       </c>
       <c r="E11">
-        <v>5.821291816815713</v>
+        <v>13.02563161051456</v>
       </c>
       <c r="F11">
-        <v>38.87305471380424</v>
+        <v>21.36211072607161</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.591012223634162</v>
       </c>
       <c r="I11">
-        <v>26.03355057798854</v>
+        <v>3.961617600279949</v>
       </c>
       <c r="J11">
-        <v>5.771793795371185</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>15.79414117335166</v>
+        <v>12.2319232506895</v>
       </c>
       <c r="L11">
-        <v>7.184807885753059</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.672661541608</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16.38807423199543</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.18717318841664</v>
+      </c>
+      <c r="P11">
+        <v>11.64032084012872</v>
+      </c>
+      <c r="Q11">
+        <v>15.829245733478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.86007226392335</v>
+        <v>23.13249268561153</v>
       </c>
       <c r="C12">
-        <v>9.874360681073339</v>
+        <v>17.80948686642212</v>
       </c>
       <c r="D12">
-        <v>2.286678624488077</v>
+        <v>5.225759394291002</v>
       </c>
       <c r="E12">
-        <v>5.820697382183136</v>
+        <v>10.36976822250331</v>
       </c>
       <c r="F12">
-        <v>39.04845544777702</v>
+        <v>20.75088030368974</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.626914721182842</v>
       </c>
       <c r="I12">
-        <v>26.09021900583215</v>
+        <v>3.977058392057753</v>
       </c>
       <c r="J12">
-        <v>5.762448405906059</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>15.95994758956939</v>
+        <v>11.79336228517399</v>
       </c>
       <c r="L12">
-        <v>7.205081340063576</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.7539663992837</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>16.34122826595355</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.30150677210457</v>
+      </c>
+      <c r="P12">
+        <v>11.77383515168895</v>
+      </c>
+      <c r="Q12">
+        <v>15.26179361218488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81571675441122</v>
+        <v>23.09486572764274</v>
       </c>
       <c r="C13">
-        <v>9.84551647065841</v>
+        <v>17.63882001588687</v>
       </c>
       <c r="D13">
-        <v>2.283167014762096</v>
+        <v>5.35954680678424</v>
       </c>
       <c r="E13">
-        <v>5.820816259050025</v>
+        <v>8.862683309959506</v>
       </c>
       <c r="F13">
-        <v>39.01052223881896</v>
+        <v>19.94023926218745</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.818615748260206</v>
       </c>
       <c r="I13">
-        <v>26.07789092032374</v>
+        <v>3.947567440571849</v>
       </c>
       <c r="J13">
-        <v>5.764457586742879</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>15.92430505819169</v>
+        <v>11.38615426867841</v>
       </c>
       <c r="L13">
-        <v>7.200695688513266</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.73644631354676</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>16.35128694076762</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.26844554679412</v>
+      </c>
+      <c r="P13">
+        <v>11.93684552559153</v>
+      </c>
+      <c r="Q13">
+        <v>14.60446012943177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.67067158377907</v>
+        <v>22.91232157853687</v>
       </c>
       <c r="C14">
-        <v>9.751067832534591</v>
+        <v>17.4183401047971</v>
       </c>
       <c r="D14">
-        <v>2.271703046559707</v>
+        <v>5.430103744526408</v>
       </c>
       <c r="E14">
-        <v>5.821238799327773</v>
+        <v>8.81562553380069</v>
       </c>
       <c r="F14">
-        <v>38.88741416456414</v>
+        <v>19.26702423948342</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.706692269176502</v>
       </c>
       <c r="I14">
-        <v>26.0381572458791</v>
+        <v>3.907590759659425</v>
       </c>
       <c r="J14">
-        <v>5.771023352707519</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>15.80781221763204</v>
+        <v>11.1134194806158</v>
       </c>
       <c r="L14">
-        <v>7.186467060674014</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.67934614851566</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>16.38420649914026</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.75410879645893</v>
+      </c>
+      <c r="P14">
+        <v>12.06513652507725</v>
+      </c>
+      <c r="Q14">
+        <v>14.09415693989842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.58152673955872</v>
+        <v>22.78963364525012</v>
       </c>
       <c r="C15">
-        <v>9.692921015642346</v>
+        <v>17.32207033196897</v>
       </c>
       <c r="D15">
-        <v>2.264671990766164</v>
+        <v>5.43646036742653</v>
       </c>
       <c r="E15">
-        <v>5.8215243018904</v>
+        <v>8.939998691708006</v>
       </c>
       <c r="F15">
-        <v>38.81246687910731</v>
+        <v>19.0517194819152</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.910153287584583</v>
       </c>
       <c r="I15">
-        <v>26.01417875284485</v>
+        <v>3.888537014562964</v>
       </c>
       <c r="J15">
-        <v>5.775055456511144</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>15.73626210526036</v>
+        <v>11.04890692277551</v>
       </c>
       <c r="L15">
-        <v>7.17780833037475</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.64439947249713</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>16.40445945869089</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.34984344473519</v>
+      </c>
+      <c r="P15">
+        <v>12.10090767367779</v>
+      </c>
+      <c r="Q15">
+        <v>13.94496551220202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.06611016855157</v>
+        <v>22.07719163965761</v>
       </c>
       <c r="C16">
-        <v>9.355144873912227</v>
+        <v>16.84095703083461</v>
       </c>
       <c r="D16">
-        <v>2.224244053623174</v>
+        <v>5.310428853026441</v>
       </c>
       <c r="E16">
-        <v>5.823565364908835</v>
+        <v>8.833388432621403</v>
       </c>
       <c r="F16">
-        <v>38.38996911791933</v>
+        <v>18.67409769404746</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.641331107846347</v>
       </c>
       <c r="I16">
-        <v>25.88218363277333</v>
+        <v>3.789282098947969</v>
       </c>
       <c r="J16">
-        <v>5.798324716152726</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>15.32329222734245</v>
+        <v>11.12565568117488</v>
       </c>
       <c r="L16">
-        <v>7.129053995446299</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.44460484538802</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>16.52186670927017</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.10059367696634</v>
+      </c>
+      <c r="P16">
+        <v>12.11379756009711</v>
+      </c>
+      <c r="Q16">
+        <v>13.79579318382566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.74590043790953</v>
+        <v>21.61883373254911</v>
       </c>
       <c r="C17">
-        <v>9.143808791914632</v>
+        <v>16.58798942127822</v>
       </c>
       <c r="D17">
-        <v>2.199325329777924</v>
+        <v>5.173259011453294</v>
       </c>
       <c r="E17">
-        <v>5.825174602157303</v>
+        <v>8.59461327567845</v>
       </c>
       <c r="F17">
-        <v>38.13696359527508</v>
+        <v>18.75583990080507</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.914007426445829</v>
       </c>
       <c r="I17">
-        <v>25.80593973581619</v>
+        <v>3.734088489054335</v>
       </c>
       <c r="J17">
-        <v>5.812749008417149</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.06737284499898</v>
+        <v>11.32802711047604</v>
       </c>
       <c r="L17">
-        <v>7.099912800877417</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.32249052264544</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>16.59507786213104</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.75028586992526</v>
+      </c>
+      <c r="P17">
+        <v>12.05761703838094</v>
+      </c>
+      <c r="Q17">
+        <v>13.96037340076032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.56027221552043</v>
+        <v>21.35056904536177</v>
       </c>
       <c r="C18">
-        <v>9.02071923286144</v>
+        <v>16.49118626185123</v>
       </c>
       <c r="D18">
-        <v>2.184951269640846</v>
+        <v>5.010006171701161</v>
       </c>
       <c r="E18">
-        <v>5.8262298040099</v>
+        <v>9.179727863531191</v>
       </c>
       <c r="F18">
-        <v>37.99369112428845</v>
+        <v>19.25728586720333</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.76704644599483</v>
       </c>
       <c r="I18">
-        <v>25.76378481774637</v>
+        <v>3.710602089020538</v>
       </c>
       <c r="J18">
-        <v>5.821101910593309</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>14.91925173716442</v>
+        <v>11.67534921854827</v>
       </c>
       <c r="L18">
-        <v>7.08343219252356</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.2524340668668</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>16.6376170946719</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.25827440733216</v>
+      </c>
+      <c r="P18">
+        <v>11.94052750797136</v>
+      </c>
+      <c r="Q18">
+        <v>14.42344613953612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49717496116281</v>
+        <v>21.23479206641477</v>
       </c>
       <c r="C19">
-        <v>8.978777804294554</v>
+        <v>16.57320394160996</v>
       </c>
       <c r="D19">
-        <v>2.180077522468196</v>
+        <v>4.849276849306674</v>
       </c>
       <c r="E19">
-        <v>5.826609188868156</v>
+        <v>11.44851732738492</v>
       </c>
       <c r="F19">
-        <v>37.94556578312122</v>
+        <v>20.00604767305069</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.568489555614079</v>
       </c>
       <c r="I19">
-        <v>25.74979985298793</v>
+        <v>3.722649706541648</v>
       </c>
       <c r="J19">
-        <v>5.823939894569011</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>14.86894444009071</v>
+        <v>12.08823131658462</v>
       </c>
       <c r="L19">
-        <v>7.077900191858177</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.22874653689263</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>16.65209352845157</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.32727784666529</v>
+      </c>
+      <c r="P19">
+        <v>11.80258098970554</v>
+      </c>
+      <c r="Q19">
+        <v>15.05174764480211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.78013820501496</v>
+        <v>21.60158114910727</v>
       </c>
       <c r="C20">
-        <v>9.166464265483832</v>
+        <v>17.07098814138</v>
       </c>
       <c r="D20">
-        <v>2.20198230493593</v>
+        <v>4.691826769264615</v>
       </c>
       <c r="E20">
-        <v>5.824989846073547</v>
+        <v>16.56658001639709</v>
       </c>
       <c r="F20">
-        <v>38.16366313361585</v>
+        <v>21.46433940045746</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.93004203168343</v>
       </c>
       <c r="I20">
-        <v>25.81387933855286</v>
+        <v>3.823817337927275</v>
       </c>
       <c r="J20">
-        <v>5.811207711675357</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.09471200913246</v>
+        <v>12.72451948733119</v>
       </c>
       <c r="L20">
-        <v>7.102985850384703</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.33547144798324</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>16.58723977551824</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.7738066284764</v>
+      </c>
+      <c r="P20">
+        <v>11.58495457816491</v>
+      </c>
+      <c r="Q20">
+        <v>16.16562283797872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.71333757870894</v>
+        <v>22.88146571313394</v>
       </c>
       <c r="C21">
-        <v>9.778870898086396</v>
+        <v>18.01701644689993</v>
       </c>
       <c r="D21">
-        <v>2.27507218265711</v>
+        <v>4.850919935890801</v>
       </c>
       <c r="E21">
-        <v>5.821109118124494</v>
+        <v>17.76564767561165</v>
       </c>
       <c r="F21">
-        <v>38.92347799949366</v>
+        <v>22.49991035768723</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3.204130107167524</v>
       </c>
       <c r="I21">
-        <v>26.04975283541216</v>
+        <v>4.018627710799138</v>
       </c>
       <c r="J21">
-        <v>5.76909267352849</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>15.84206969404117</v>
+        <v>12.83171033388783</v>
       </c>
       <c r="L21">
-        <v>7.190634524570945</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.69611191076884</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>16.37451868783084</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.10963684028994</v>
+      </c>
+      <c r="P21">
+        <v>11.45246304598073</v>
+      </c>
+      <c r="Q21">
+        <v>16.75710001535272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.30984865709651</v>
+        <v>23.69628830796311</v>
       </c>
       <c r="C22">
-        <v>10.16588704053973</v>
+        <v>18.57824167011077</v>
       </c>
       <c r="D22">
-        <v>2.322440054277534</v>
+        <v>4.957139165734834</v>
       </c>
       <c r="E22">
-        <v>5.819762716684123</v>
+        <v>18.27639104164837</v>
       </c>
       <c r="F22">
-        <v>39.44058662938764</v>
+        <v>23.13668502968993</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.367708605293398</v>
       </c>
       <c r="I22">
-        <v>26.21989340093857</v>
+        <v>4.139496562417266</v>
       </c>
       <c r="J22">
-        <v>5.742036969740259</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>16.3218470794653</v>
+        <v>12.89986925742042</v>
       </c>
       <c r="L22">
-        <v>7.250452093170598</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.93313777093499</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>16.23945106002393</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.80683883658859</v>
+      </c>
+      <c r="P22">
+        <v>11.37242590664856</v>
+      </c>
+      <c r="Q22">
+        <v>17.11911021250408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.99272138362044</v>
+        <v>23.27984579867556</v>
       </c>
       <c r="C23">
-        <v>9.960517192487648</v>
+        <v>18.2562303666542</v>
       </c>
       <c r="D23">
-        <v>2.297196682280259</v>
+        <v>4.896620481009288</v>
       </c>
       <c r="E23">
-        <v>5.820370614779502</v>
+        <v>18.00611686605294</v>
       </c>
       <c r="F23">
-        <v>39.16269295279358</v>
+        <v>22.82208555217294</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3.281202599752679</v>
       </c>
       <c r="I23">
-        <v>26.12758141499026</v>
+        <v>4.07300539544197</v>
       </c>
       <c r="J23">
-        <v>5.756435898716294</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>16.06659063616767</v>
+        <v>12.88410835277275</v>
       </c>
       <c r="L23">
-        <v>7.218292672145926</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.80652353678404</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>16.31117009277213</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.43785262493519</v>
+      </c>
+      <c r="P23">
+        <v>11.41162677810019</v>
+      </c>
+      <c r="Q23">
+        <v>16.94641703357343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.76466408707676</v>
+        <v>21.60267783025136</v>
       </c>
       <c r="C24">
-        <v>9.156226681950038</v>
+        <v>17.03121724664491</v>
       </c>
       <c r="D24">
-        <v>2.200781235428803</v>
+        <v>4.667060943733689</v>
       </c>
       <c r="E24">
-        <v>5.825072969667515</v>
+        <v>16.94557663083003</v>
       </c>
       <c r="F24">
-        <v>38.15158547569241</v>
+        <v>21.57363185567796</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.946064694735446</v>
       </c>
       <c r="I24">
-        <v>25.81028462476499</v>
+        <v>3.820388463313799</v>
       </c>
       <c r="J24">
-        <v>5.81190434410771</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.08235505001539</v>
+        <v>12.80349471066339</v>
       </c>
       <c r="L24">
-        <v>7.101595674581415</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.32960230519988</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>16.59078197674363</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.98188258203336</v>
+      </c>
+      <c r="P24">
+        <v>11.56983916035444</v>
+      </c>
+      <c r="Q24">
+        <v>16.26038490231045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.38503960391178</v>
+        <v>19.62958098456478</v>
       </c>
       <c r="C25">
-        <v>8.229783193500213</v>
+        <v>15.61457271663425</v>
       </c>
       <c r="D25">
-        <v>2.095233813580951</v>
+        <v>4.404811035686835</v>
       </c>
       <c r="E25">
-        <v>5.835083478035886</v>
+        <v>15.72593053970652</v>
       </c>
       <c r="F25">
-        <v>37.14667583424747</v>
+        <v>20.19398225873309</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.569481265576678</v>
       </c>
       <c r="I25">
-        <v>25.53248279835652</v>
+        <v>3.539336428479019</v>
       </c>
       <c r="J25">
-        <v>5.873910614000119</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>13.98589990416594</v>
+        <v>12.74407784985419</v>
       </c>
       <c r="L25">
-        <v>6.986429040607748</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.82228478171144</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>16.9087901175413</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.28875734533318</v>
+      </c>
+      <c r="P25">
+        <v>11.74898054540146</v>
+      </c>
+      <c r="Q25">
+        <v>15.52537517700336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.0787820878199</v>
+        <v>17.80436165409846</v>
       </c>
       <c r="C2">
-        <v>14.41802340856973</v>
+        <v>14.86207999651472</v>
       </c>
       <c r="D2">
-        <v>4.188507589781035</v>
+        <v>4.251311790860338</v>
       </c>
       <c r="E2">
-        <v>14.7663198675644</v>
+        <v>14.77985305284311</v>
       </c>
       <c r="F2">
-        <v>19.22481769127064</v>
+        <v>18.73473147468317</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.279838060197834</v>
+        <v>2.283746348727057</v>
       </c>
       <c r="I2">
-        <v>3.320127072837725</v>
+        <v>3.33410322028632</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>12.77436496212363</v>
+        <v>12.36148919325196</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.40870537953693</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.980314842103567</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.93911271730731</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.88159831178948</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.04668903945374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.93518418049765</v>
+      </c>
+      <c r="R2">
+        <v>11.90003979323629</v>
+      </c>
+      <c r="S2">
+        <v>14.64068597342152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.91426229342608</v>
+        <v>16.69487915819759</v>
       </c>
       <c r="C3">
-        <v>13.59527248033263</v>
+        <v>13.94641233074152</v>
       </c>
       <c r="D3">
-        <v>4.040993394813878</v>
+        <v>4.085294730936609</v>
       </c>
       <c r="E3">
-        <v>14.07614739522082</v>
+        <v>14.10188705351933</v>
       </c>
       <c r="F3">
-        <v>18.52016046431165</v>
+        <v>18.09503893406202</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.073831381220796</v>
+        <v>2.083498419014233</v>
       </c>
       <c r="I3">
-        <v>3.168096265776171</v>
+        <v>3.197269393316589</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>12.77683925569725</v>
+        <v>12.40638768044328</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.55265901197865</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.879473389331448</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.95969437349083</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.97977692998681</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.69699493531311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.95880852920023</v>
+      </c>
+      <c r="R3">
+        <v>11.97749401095738</v>
+      </c>
+      <c r="S3">
+        <v>14.3428291453818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.15399837721433</v>
+        <v>15.97048844804658</v>
       </c>
       <c r="C4">
-        <v>13.06684464427989</v>
+        <v>13.3574720232323</v>
       </c>
       <c r="D4">
-        <v>3.947244145818579</v>
+        <v>3.979795919044358</v>
       </c>
       <c r="E4">
-        <v>13.63377207912569</v>
+        <v>13.66765534469273</v>
       </c>
       <c r="F4">
-        <v>18.08280865626273</v>
+        <v>17.69780898148249</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.942784832007112</v>
+        <v>1.95607487285999</v>
       </c>
       <c r="I4">
-        <v>3.071961159665787</v>
+        <v>3.110840585929776</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>12.78304668475156</v>
+        <v>12.43727956250159</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.6424518073555</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.842183404492724</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.3273218102634</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.04224672862577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.48459686774412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.32831904371075</v>
+      </c>
+      <c r="R4">
+        <v>12.02768241045576</v>
+      </c>
+      <c r="S4">
+        <v>14.16188000339513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.82746450458886</v>
+        <v>15.659157534891</v>
       </c>
       <c r="C5">
-        <v>12.85411653261815</v>
+        <v>13.11933690111301</v>
       </c>
       <c r="D5">
-        <v>3.909488115850161</v>
+        <v>3.937198682167654</v>
       </c>
       <c r="E5">
-        <v>13.44864206994099</v>
+        <v>13.48602019393769</v>
       </c>
       <c r="F5">
-        <v>17.89591397587519</v>
+        <v>17.52733140378951</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.888059915039169</v>
+        <v>1.902853140805873</v>
       </c>
       <c r="I5">
-        <v>3.032406123347874</v>
+        <v>3.075566855110611</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>12.78119053431688</v>
+        <v>12.44536377309833</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.67478879992706</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.829874174924927</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.06179062280223</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.06877868688813</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.39262826754663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.06356322405967</v>
+      </c>
+      <c r="R5">
+        <v>12.04941097285107</v>
+      </c>
+      <c r="S5">
+        <v>14.08267306346642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76604579372837</v>
+        <v>15.60035724593452</v>
       </c>
       <c r="C6">
-        <v>12.82871119469285</v>
+        <v>13.08980208912733</v>
       </c>
       <c r="D6">
-        <v>3.904668421643617</v>
+        <v>3.93161420470554</v>
       </c>
       <c r="E6">
-        <v>13.41728827428083</v>
+        <v>13.45526585995033</v>
       </c>
       <c r="F6">
-        <v>17.8553495320812</v>
+        <v>17.48956526493558</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.878706865377766</v>
+        <v>1.893755795536349</v>
       </c>
       <c r="I6">
-        <v>3.026384629730179</v>
+        <v>3.07057841333937</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>12.77420352297779</v>
+        <v>12.44027828117771</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.67455165859426</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.824063213881591</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.01704762881329</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.07387285104039</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.36995953268469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.01895181192862</v>
+      </c>
+      <c r="R6">
+        <v>12.05383039050632</v>
+      </c>
+      <c r="S6">
+        <v>14.06220769594631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.13227656856817</v>
+        <v>15.9491307698016</v>
       </c>
       <c r="C7">
-        <v>13.09147599365655</v>
+        <v>13.38213068520722</v>
       </c>
       <c r="D7">
-        <v>3.950789014590399</v>
+        <v>3.983396473291638</v>
       </c>
       <c r="E7">
-        <v>13.6303955267008</v>
+        <v>13.66435003741886</v>
       </c>
       <c r="F7">
-        <v>18.05471054089601</v>
+        <v>17.6701395139379</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.941526728009292</v>
+        <v>1.954850043164405</v>
       </c>
       <c r="I7">
-        <v>3.072737765047878</v>
+        <v>3.112480760015312</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>12.76459846526614</v>
+        <v>12.41975094543062</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.62791953003829</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.830112264475328</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.32325575443677</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.04446334434795</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.46318731713102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.32427012422061</v>
+      </c>
+      <c r="R7">
+        <v>12.03016858584464</v>
+      </c>
+      <c r="S7">
+        <v>14.14090800152945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.66538404709339</v>
+        <v>17.40970524717947</v>
       </c>
       <c r="C8">
-        <v>14.17318386365652</v>
+        <v>14.58632428406013</v>
       </c>
       <c r="D8">
-        <v>4.143521470958921</v>
+        <v>4.200185811650626</v>
       </c>
       <c r="E8">
-        <v>14.53119972131351</v>
+        <v>14.54884765150762</v>
       </c>
       <c r="F8">
-        <v>18.95061481983711</v>
+        <v>18.48313928522656</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.209086302189784</v>
+        <v>2.214981619407905</v>
       </c>
       <c r="I8">
-        <v>3.26960957251706</v>
+        <v>3.289738756482378</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>12.74991703789983</v>
+        <v>12.35315404048922</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.4399318140412</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.922707924443762</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.607261795663</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.91776657670148</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.89975607495734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.60439035257088</v>
+      </c>
+      <c r="R8">
+        <v>11.92947633039697</v>
+      </c>
+      <c r="S8">
+        <v>14.51206292305566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.34176742851665</v>
+        <v>19.95966989208891</v>
       </c>
       <c r="C9">
-        <v>16.06319827382447</v>
+        <v>16.68844054655947</v>
       </c>
       <c r="D9">
-        <v>4.488379050783012</v>
+        <v>4.588620274651906</v>
       </c>
       <c r="E9">
-        <v>16.14800281540137</v>
+        <v>16.1385052365006</v>
       </c>
       <c r="F9">
-        <v>20.70306696283432</v>
+        <v>20.07640379152749</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.699236799009753</v>
+        <v>2.691178835787835</v>
       </c>
       <c r="I9">
-        <v>3.632781654178487</v>
+        <v>3.616093858324699</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>12.79328221254809</v>
+        <v>12.28204325731749</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.10584569421144</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.318187352713573</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.87621030511499</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.68309623180178</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.80532625684948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.86572345611972</v>
+      </c>
+      <c r="R9">
+        <v>11.74883227057002</v>
+      </c>
+      <c r="S9">
+        <v>15.28725582882547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.08735116477183</v>
+        <v>21.62612845270188</v>
       </c>
       <c r="C10">
-        <v>17.32784524602279</v>
+        <v>18.08482856165042</v>
       </c>
       <c r="D10">
-        <v>4.745987679800801</v>
+        <v>4.875232629000182</v>
       </c>
       <c r="E10">
-        <v>16.74519355577927</v>
+        <v>16.71794525596568</v>
       </c>
       <c r="F10">
-        <v>21.83014397941835</v>
+        <v>21.09858970956806</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.015321011997859</v>
+        <v>2.997600652768526</v>
       </c>
       <c r="I10">
-        <v>3.883586675748208</v>
+        <v>3.842439951094329</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>12.78253475906168</v>
+        <v>12.18996740964454</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.8277107569464</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.655615001092715</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.10191502267916</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.53914386150634</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.37603712561926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.08595424662303</v>
+      </c>
+      <c r="R10">
+        <v>11.64892699784466</v>
+      </c>
+      <c r="S10">
+        <v>15.76995249357314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83385750633051</v>
+        <v>22.37667295567751</v>
       </c>
       <c r="C11">
-        <v>17.74619315256895</v>
+        <v>18.49718395221019</v>
       </c>
       <c r="D11">
-        <v>5.035475071457697</v>
+        <v>5.170919154551325</v>
       </c>
       <c r="E11">
-        <v>13.02563161051456</v>
+        <v>12.98367610296906</v>
       </c>
       <c r="F11">
-        <v>21.36211072607161</v>
+        <v>20.64864314768445</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.591012223634162</v>
+        <v>3.57457478979919</v>
       </c>
       <c r="I11">
-        <v>3.961617600279949</v>
+        <v>3.915045648593987</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>12.2319232506895</v>
+        <v>11.68160067653445</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.41136383376914</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.38630037366306</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.18717318841664</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.64032084012872</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.829245733478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.17079114222245</v>
+      </c>
+      <c r="R11">
+        <v>11.78251663910823</v>
+      </c>
+      <c r="S11">
+        <v>15.24251650346408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.13249268561153</v>
+        <v>22.6947976089594</v>
       </c>
       <c r="C12">
-        <v>17.80948686642212</v>
+        <v>18.52810767706408</v>
       </c>
       <c r="D12">
-        <v>5.225759394291002</v>
+        <v>5.359458983861563</v>
       </c>
       <c r="E12">
-        <v>10.36976822250331</v>
+        <v>10.31523709420999</v>
       </c>
       <c r="F12">
-        <v>20.75088030368974</v>
+        <v>20.07486203818245</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.626914721182842</v>
+        <v>4.614412097754141</v>
       </c>
       <c r="I12">
-        <v>3.977058392057753</v>
+        <v>3.929141926260788</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>11.79336228517399</v>
+        <v>11.29615193159838</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.14495267795665</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.0964674520337</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.30150677210457</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.77383515168895</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.26179361218488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.28587246584199</v>
+      </c>
+      <c r="R12">
+        <v>11.93034444006073</v>
+      </c>
+      <c r="S12">
+        <v>14.71025083059425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.09486572764274</v>
+        <v>22.69048037888251</v>
       </c>
       <c r="C13">
-        <v>17.63882001588687</v>
+        <v>18.30220614809469</v>
       </c>
       <c r="D13">
-        <v>5.35954680678424</v>
+        <v>5.485691341910337</v>
       </c>
       <c r="E13">
-        <v>8.862683309959506</v>
+        <v>8.802369690485866</v>
       </c>
       <c r="F13">
-        <v>19.94023926218745</v>
+        <v>19.3204405402769</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.818615748260206</v>
+        <v>5.809719896311422</v>
       </c>
       <c r="I13">
-        <v>3.947567440571849</v>
+        <v>3.902684503508145</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>11.38615426867841</v>
+        <v>10.95520766700463</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.950653968967838</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.748295270047423</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.26844554679412</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.93684552559153</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.60446012943177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.25440954670067</v>
+      </c>
+      <c r="R13">
+        <v>12.09507815789286</v>
+      </c>
+      <c r="S13">
+        <v>14.10389153362565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.91232157853687</v>
+        <v>22.53796563593019</v>
       </c>
       <c r="C14">
-        <v>17.4183401047971</v>
+        <v>18.03199773524452</v>
       </c>
       <c r="D14">
-        <v>5.430103744526408</v>
+        <v>5.548269255651507</v>
       </c>
       <c r="E14">
-        <v>8.81562553380069</v>
+        <v>8.759806321025236</v>
       </c>
       <c r="F14">
-        <v>19.26702423948342</v>
+        <v>18.69582033509429</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.706692269176502</v>
+        <v>6.699881006831543</v>
       </c>
       <c r="I14">
-        <v>3.907590759659425</v>
+        <v>3.867050335110015</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>11.1134194806158</v>
+        <v>10.7345494203038</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.841875963154417</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.477260687679517</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.75410879645893</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.06513652507725</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.09415693989842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.74151746868798</v>
+      </c>
+      <c r="R14">
+        <v>12.21867988290058</v>
+      </c>
+      <c r="S14">
+        <v>13.6369449946709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.78963364525012</v>
+        <v>22.42571408588265</v>
       </c>
       <c r="C15">
-        <v>17.32207033196897</v>
+        <v>17.91855139875966</v>
       </c>
       <c r="D15">
-        <v>5.43646036742653</v>
+        <v>5.551551973779351</v>
       </c>
       <c r="E15">
-        <v>8.939998691708006</v>
+        <v>8.88736260275876</v>
       </c>
       <c r="F15">
-        <v>19.0517194819152</v>
+        <v>18.49652620511377</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.910153287584583</v>
+        <v>6.90392226255925</v>
       </c>
       <c r="I15">
-        <v>3.888537014562964</v>
+        <v>3.850458466662041</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>11.04890692277551</v>
+        <v>10.6854842087145</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.824717346294687</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.396509469782083</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.34984344473519</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.10090767367779</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.94496551220202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.33777948616843</v>
+      </c>
+      <c r="R15">
+        <v>12.25111389900982</v>
+      </c>
+      <c r="S15">
+        <v>13.50177355949843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.07719163965761</v>
+        <v>21.74160055532893</v>
       </c>
       <c r="C16">
-        <v>16.84095703083461</v>
+        <v>17.39068514214377</v>
       </c>
       <c r="D16">
-        <v>5.310428853026441</v>
+        <v>5.415178853466736</v>
       </c>
       <c r="E16">
-        <v>8.833388432621403</v>
+        <v>8.792524210542579</v>
       </c>
       <c r="F16">
-        <v>18.67409769404746</v>
+        <v>18.15547329440489</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.641331107846347</v>
+        <v>6.636567922209727</v>
       </c>
       <c r="I16">
-        <v>3.789282098947969</v>
+        <v>3.761516921758015</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>11.12565568117488</v>
+        <v>10.78308220482388</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.946349588137632</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.316914958543151</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.10059367696634</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.11379756009711</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.79579318382566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.09027539168503</v>
+      </c>
+      <c r="R16">
+        <v>12.24395031169817</v>
+      </c>
+      <c r="S16">
+        <v>13.38229667065932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.61883373254911</v>
+        <v>21.28862518024641</v>
       </c>
       <c r="C17">
-        <v>16.58798942127822</v>
+        <v>17.12890419315919</v>
       </c>
       <c r="D17">
-        <v>5.173259011453294</v>
+        <v>5.274325205119758</v>
       </c>
       <c r="E17">
-        <v>8.59461327567845</v>
+        <v>8.560035366651844</v>
       </c>
       <c r="F17">
-        <v>18.75583990080507</v>
+        <v>18.23847497804455</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.914007426445829</v>
+        <v>5.909596659785514</v>
       </c>
       <c r="I17">
-        <v>3.734088489054335</v>
+        <v>3.712045469744734</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>11.32802711047604</v>
+        <v>10.97416417007169</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.10366418933237</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.399251848483775</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.75028586992526</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.05761703838094</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.96037340076032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.74060488101291</v>
+      </c>
+      <c r="R17">
+        <v>12.17524292468565</v>
+      </c>
+      <c r="S17">
+        <v>13.54588964460049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.35056904536177</v>
+        <v>21.00601219526736</v>
       </c>
       <c r="C18">
-        <v>16.49118626185123</v>
+        <v>17.05574883027361</v>
       </c>
       <c r="D18">
-        <v>5.010006171701161</v>
+        <v>5.112466592912398</v>
       </c>
       <c r="E18">
-        <v>9.179727863531191</v>
+        <v>9.150693658622522</v>
       </c>
       <c r="F18">
-        <v>19.25728586720333</v>
+        <v>18.7107881525051</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.76704644599483</v>
+        <v>4.761826543192785</v>
       </c>
       <c r="I18">
-        <v>3.710602089020538</v>
+        <v>3.689720642489914</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>11.67534921854827</v>
+        <v>11.28118726281104</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.32394858870356</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.631336959292461</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.25827440733216</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.94052750797136</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.42344613953612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.24831722785602</v>
+      </c>
+      <c r="R18">
+        <v>12.04909537550826</v>
+      </c>
+      <c r="S18">
+        <v>13.98155133420939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.23479206641477</v>
+        <v>20.86140427146438</v>
       </c>
       <c r="C19">
-        <v>16.57320394160996</v>
+        <v>17.18578003908289</v>
       </c>
       <c r="D19">
-        <v>4.849276849306674</v>
+        <v>4.95670729793981</v>
       </c>
       <c r="E19">
-        <v>11.44851732738492</v>
+        <v>11.42511897122511</v>
       </c>
       <c r="F19">
-        <v>20.00604767305069</v>
+        <v>19.40917195595978</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.568489555614079</v>
+        <v>3.560690406494263</v>
       </c>
       <c r="I19">
-        <v>3.722649706541648</v>
+        <v>3.700895083265233</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>12.08823131658462</v>
+        <v>11.63518565374837</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.56452597123257</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.939182390574408</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.32727784666529</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.80258098970554</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.05174764480211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.31626046126553</v>
+      </c>
+      <c r="R19">
+        <v>11.90420781170695</v>
+      </c>
+      <c r="S19">
+        <v>14.5642892468489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.60158114910727</v>
+        <v>21.16114274108224</v>
       </c>
       <c r="C20">
-        <v>17.07098814138</v>
+        <v>17.79464826134295</v>
       </c>
       <c r="D20">
-        <v>4.691826769264615</v>
+        <v>4.813900484642137</v>
       </c>
       <c r="E20">
-        <v>16.56658001639709</v>
+        <v>16.54398574725321</v>
       </c>
       <c r="F20">
-        <v>21.46433940045746</v>
+        <v>20.76095637239904</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.93004203168343</v>
+        <v>2.914895270293655</v>
       </c>
       <c r="I20">
-        <v>3.823817337927275</v>
+        <v>3.791853315832123</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>12.72451948733119</v>
+        <v>12.15742788989857</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.86363260618872</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.511400236429894</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.7738066284764</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.58495457816491</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.16562283797872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.75932946834131</v>
+      </c>
+      <c r="R20">
+        <v>11.68449633282834</v>
+      </c>
+      <c r="S20">
+        <v>15.58369740580257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.88146571313394</v>
+        <v>22.376051641686</v>
       </c>
       <c r="C21">
-        <v>18.01701644689993</v>
+        <v>18.84765913107703</v>
       </c>
       <c r="D21">
-        <v>4.850919935890801</v>
+        <v>4.995362630322378</v>
       </c>
       <c r="E21">
-        <v>17.76564767561165</v>
+        <v>17.73078679751564</v>
       </c>
       <c r="F21">
-        <v>22.49991035768723</v>
+        <v>21.70613287721517</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.204130107167524</v>
+        <v>3.181230577000925</v>
       </c>
       <c r="I21">
-        <v>4.018627710799138</v>
+        <v>3.967032166599196</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>12.83171033388783</v>
+        <v>12.18555507175191</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.71399305431577</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.879644685832409</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.10963684028994</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.45246304598073</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.75710001535272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.09051545807737</v>
+      </c>
+      <c r="R21">
+        <v>11.58419794903114</v>
+      </c>
+      <c r="S21">
+        <v>16.09762061991582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.69628830796311</v>
+        <v>23.15211247350815</v>
       </c>
       <c r="C22">
-        <v>18.57824167011077</v>
+        <v>19.47182168482691</v>
       </c>
       <c r="D22">
-        <v>4.957139165734834</v>
+        <v>5.115257226059984</v>
       </c>
       <c r="E22">
-        <v>18.27639104164837</v>
+        <v>18.23365989474206</v>
       </c>
       <c r="F22">
-        <v>23.13668502968993</v>
+        <v>22.28867996577159</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.367708605293398</v>
+        <v>3.339878799944811</v>
       </c>
       <c r="I22">
-        <v>4.139496562417266</v>
+        <v>4.0744268507339</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>12.89986925742042</v>
+        <v>12.20405465257328</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.61293920347068</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.130220334155091</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.80683883658859</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.37242590664856</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.11911021250408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.78472533378925</v>
+      </c>
+      <c r="R22">
+        <v>11.52586422113851</v>
+      </c>
+      <c r="S22">
+        <v>16.41270180896413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.27984579867556</v>
+        <v>22.75608714043164</v>
       </c>
       <c r="C23">
-        <v>18.2562303666542</v>
+        <v>19.11633507931907</v>
       </c>
       <c r="D23">
-        <v>4.896620481009288</v>
+        <v>5.047383414239982</v>
       </c>
       <c r="E23">
-        <v>18.00611686605294</v>
+        <v>17.96750962545332</v>
       </c>
       <c r="F23">
-        <v>22.82208555217294</v>
+        <v>22.00268109577709</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.281202599752679</v>
+        <v>3.255980675521288</v>
       </c>
       <c r="I23">
-        <v>4.07300539544197</v>
+        <v>4.014008156407908</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>12.88410835277275</v>
+        <v>12.21365048188581</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.67908478004318</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.013641456282446</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.43785262493519</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.41162677810019</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.94641703357343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.41733078966392</v>
+      </c>
+      <c r="R23">
+        <v>11.55283964697156</v>
+      </c>
+      <c r="S23">
+        <v>16.26469439600696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.60267783025136</v>
+        <v>21.15953336146763</v>
       </c>
       <c r="C24">
-        <v>17.03121724664491</v>
+        <v>17.75866845017113</v>
       </c>
       <c r="D24">
-        <v>4.667060943733689</v>
+        <v>4.789117436498684</v>
       </c>
       <c r="E24">
-        <v>16.94557663083003</v>
+        <v>16.92342084102144</v>
       </c>
       <c r="F24">
-        <v>21.57363185567796</v>
+        <v>20.86537648322732</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.946064694735446</v>
+        <v>2.930812738357134</v>
       </c>
       <c r="I24">
-        <v>3.820388463313799</v>
+        <v>3.786563318442982</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>12.80349471066339</v>
+        <v>12.22863381448801</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.91321199883501</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.570574985894071</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.98188258203336</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.56983916035444</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.26038490231045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.96728161837467</v>
+      </c>
+      <c r="R24">
+        <v>11.66684646019934</v>
+      </c>
+      <c r="S24">
+        <v>15.67381324298882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.62958098456478</v>
+        <v>19.28025273646033</v>
       </c>
       <c r="C25">
-        <v>15.61457271663425</v>
+        <v>16.18580736687542</v>
       </c>
       <c r="D25">
-        <v>4.404811035686835</v>
+        <v>4.493857217770971</v>
       </c>
       <c r="E25">
-        <v>15.72593053970652</v>
+        <v>15.72334785144452</v>
       </c>
       <c r="F25">
-        <v>20.19398225873309</v>
+        <v>19.6101162868919</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.569481265576678</v>
+        <v>2.565165843315636</v>
       </c>
       <c r="I25">
-        <v>3.539336428479019</v>
+        <v>3.53382229756571</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>12.74407784985419</v>
+        <v>12.26683003511994</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.17300735539458</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.165389800842123</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.28875734533318</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.74898054540146</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.52537517700336</v>
+        <v>18.28035754572365</v>
+      </c>
+      <c r="R25">
+        <v>11.80045952528741</v>
+      </c>
+      <c r="S25">
+        <v>15.04306689984409</v>
       </c>
     </row>
   </sheetData>
